--- a/Kip/ColumnLoss.xlsx
+++ b/Kip/ColumnLoss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kip Madden\Desktop\dataScience\project-2\Kip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D8AFDB-1E03-411D-9C17-43A6E8886EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D725B26B-0363-4AC1-9BB1-D55E77101214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="10" xr2:uid="{526A8007-2B7C-4A99-9DA7-25FE95362C64}"/>
+    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="9" xr2:uid="{526A8007-2B7C-4A99-9DA7-25FE95362C64}"/>
   </bookViews>
   <sheets>
     <sheet name="six" sheetId="1" r:id="rId1"/>
@@ -1722,27 +1722,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B084"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -5524,8 +5508,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794F44C-EF74-4DB1-A296-7454105E884B}">
   <dimension ref="A1:I221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A94" sqref="A94:I221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -11285,7 +11272,7 @@
   </sheetData>
   <autoFilter ref="A1:I221" xr:uid="{DEA5BD02-8103-4309-86C3-AC14A76234C0}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I221">
-      <sortCondition sortBy="cellColor" ref="B1:B221" dxfId="3"/>
+      <sortCondition sortBy="cellColor" ref="B1:B221" dxfId="1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11296,8 +11283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38E6739-9B40-44D2-8E43-EE8588420DA3}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -12289,7 +12276,7 @@
   </sheetData>
   <autoFilter ref="A1:H93" xr:uid="{C12001EC-F0F9-4691-B73C-C5C9ACF58417}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H93">
-      <sortCondition sortBy="cellColor" ref="B1:B93" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="B1:B93" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15545,7 +15532,7 @@
   <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>

--- a/Kip/ColumnLoss.xlsx
+++ b/Kip/ColumnLoss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kip Madden\Desktop\dataScience\project-2\Kip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D725B26B-0363-4AC1-9BB1-D55E77101214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E400DF-3ECD-4EA6-99D0-6675255EAA5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="9" xr2:uid="{526A8007-2B7C-4A99-9DA7-25FE95362C64}"/>
+    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{526A8007-2B7C-4A99-9DA7-25FE95362C64}"/>
   </bookViews>
   <sheets>
     <sheet name="six" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="FullCross" sheetId="10" r:id="rId10"/>
     <sheet name="HoefstedeLost" sheetId="12" r:id="rId11"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId12"/>
+    <sheet name="mergedCovid" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">covid!$A$1:$B$12229</definedName>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5408" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5643" uniqueCount="516">
   <si>
     <t>AFE</t>
   </si>
@@ -1633,6 +1634,9 @@
   </si>
   <si>
     <t>ivr</t>
+  </si>
+  <si>
+    <t>mergedCovid</t>
   </si>
 </sst>
 </file>
@@ -5508,11 +5512,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794F44C-EF74-4DB1-A296-7454105E884B}">
   <dimension ref="A1:I221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A94" sqref="A94:I221"/>
+      <selection pane="bottomRight" activeCell="L207" sqref="L207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -13117,6 +13121,960 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB7BF64-46CF-45A5-A339-02778D92851E}">
+  <dimension ref="A1:B117"/>
+  <sheetViews>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="20.69140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>320</v>
+      </c>
+      <c r="B43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>326</v>
+      </c>
+      <c r="B57" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>332</v>
+      </c>
+      <c r="B58" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>352</v>
+      </c>
+      <c r="B64" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>376</v>
+      </c>
+      <c r="B74" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>398</v>
+      </c>
+      <c r="B86" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>414</v>
+      </c>
+      <c r="B91" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>415</v>
+      </c>
+      <c r="B92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>419</v>
+      </c>
+      <c r="B93" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>174</v>
+      </c>
+      <c r="B94" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>184</v>
+      </c>
+      <c r="B99" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>431</v>
+      </c>
+      <c r="B100" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>198</v>
+      </c>
+      <c r="B104" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>204</v>
+      </c>
+      <c r="B107" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>456</v>
+      </c>
+      <c r="B110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>212</v>
+      </c>
+      <c r="B113" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>214</v>
+      </c>
+      <c r="B114" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>218</v>
+      </c>
+      <c r="B116" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>220</v>
+      </c>
+      <c r="B117" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862C2CEB-5AFA-4C28-A9BD-D0B18C340AEC}">
   <dimension ref="A1:B207"/>
@@ -15529,11 +16487,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DE9D83-2945-4074-87FA-77D8D44DBD48}">
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D149" sqref="D149"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -15542,9 +16500,10 @@
     <col min="4" max="4" width="10.53515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.3828125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>222</v>
       </c>
@@ -15564,13 +16523,16 @@
         <v>493</v>
       </c>
       <c r="H1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K1" t="s">
         <v>494</v>
       </c>
-      <c r="I1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>233</v>
       </c>
@@ -15593,16 +16555,20 @@
         <f>VLOOKUP(A2,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>ABW</v>
       </c>
-      <c r="H2" s="3" t="e">
-        <f>VLOOKUP(A2,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I2" t="str">
+      <c r="H2" t="str">
         <f>VLOOKUP(A2,covid!$A$2:$B$207,1,FALSE)</f>
         <v>ABW</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I2" s="3" t="e">
+        <f>VLOOKUP(A2,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K2" s="3" t="e">
+        <f>VLOOKUP(A2,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>225</v>
       </c>
@@ -15625,20 +16591,24 @@
         <f>VLOOKUP(A3,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>AFG</v>
       </c>
-      <c r="H3" s="3" t="e">
-        <f>VLOOKUP(A3,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I3" t="str">
+      <c r="H3" t="str">
         <f>VLOOKUP(A3,covid!$A$2:$B$207,1,FALSE)</f>
         <v>AFG</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I3" s="3" t="e">
+        <f>VLOOKUP(A3,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K3" s="3" t="e">
+        <f>VLOOKUP(A3,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>228</v>
       </c>
       <c r="D4" t="str">
@@ -15657,16 +16627,20 @@
         <f>VLOOKUP(A4,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>AGO</v>
       </c>
-      <c r="H4" s="3" t="e">
-        <f>VLOOKUP(A4,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I4" t="str">
+      <c r="H4" t="str">
         <f>VLOOKUP(A4,covid!$A$2:$B$207,1,FALSE)</f>
         <v>AGO</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I4" t="str">
+        <f>VLOOKUP(A4,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>AGO</v>
+      </c>
+      <c r="K4" s="3" t="e">
+        <f>VLOOKUP(A4,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15690,15 +16664,19 @@
         <v>ALB</v>
       </c>
       <c r="H5" t="str">
+        <f>VLOOKUP(A5,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>ALB</v>
+      </c>
+      <c r="I5" t="str">
+        <f>VLOOKUP(A5,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>ALB</v>
+      </c>
+      <c r="K5" t="str">
         <f>VLOOKUP(A5,six!$A$2:$B$112,1,FALSE)</f>
         <v>ALB</v>
       </c>
-      <c r="I5" t="str">
-        <f>VLOOKUP(A5,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>ALB</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -15722,19 +16700,23 @@
         <v>#N/A</v>
       </c>
       <c r="H6" t="str">
+        <f>VLOOKUP(A6,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>AND</v>
+      </c>
+      <c r="I6" s="1" t="e">
+        <f>VLOOKUP(A6,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="str">
         <f>VLOOKUP(A6,six!$A$2:$B$112,1,FALSE)</f>
         <v>AND</v>
       </c>
-      <c r="I6" t="str">
-        <f>VLOOKUP(A6,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>AND</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>456</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>455</v>
       </c>
       <c r="D7" t="str">
@@ -15753,16 +16735,20 @@
         <f>VLOOKUP(A7,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>ARE</v>
       </c>
-      <c r="H7" s="3" t="e">
-        <f>VLOOKUP(A7,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I7" t="str">
+      <c r="H7" t="str">
         <f>VLOOKUP(A7,covid!$A$2:$B$207,1,FALSE)</f>
         <v>ARE</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I7" s="5" t="str">
+        <f>VLOOKUP(A7,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>ARE</v>
+      </c>
+      <c r="K7" s="3" t="e">
+        <f>VLOOKUP(A7,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -15786,15 +16772,19 @@
         <v>ARG</v>
       </c>
       <c r="H8" t="str">
+        <f>VLOOKUP(A8,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>ARG</v>
+      </c>
+      <c r="I8" t="str">
+        <f>VLOOKUP(A8,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>ARG</v>
+      </c>
+      <c r="K8" t="str">
         <f>VLOOKUP(A8,six!$A$2:$B$112,1,FALSE)</f>
         <v>ARG</v>
       </c>
-      <c r="I8" t="str">
-        <f>VLOOKUP(A8,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>ARG</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -15818,15 +16808,19 @@
         <v>ARM</v>
       </c>
       <c r="H9" t="str">
+        <f>VLOOKUP(A9,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>ARM</v>
+      </c>
+      <c r="I9" t="str">
+        <f>VLOOKUP(A9,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>ARM</v>
+      </c>
+      <c r="K9" t="str">
         <f>VLOOKUP(A9,six!$A$2:$B$112,1,FALSE)</f>
         <v>ARM</v>
       </c>
-      <c r="I9" t="str">
-        <f>VLOOKUP(A9,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>ARM</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>227</v>
       </c>
@@ -15850,15 +16844,19 @@
         <v>#N/A</v>
       </c>
       <c r="H10" s="1" t="e">
+        <f>VLOOKUP(A10,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I10" s="1" t="e">
+        <f>VLOOKUP(A10,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K10" s="1" t="e">
         <f>VLOOKUP(A10,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I10" s="1" t="e">
-        <f>VLOOKUP(A10,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>231</v>
       </c>
@@ -15881,16 +16879,20 @@
         <f>VLOOKUP(A11,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>ATG</v>
       </c>
-      <c r="H11" s="3" t="e">
-        <f>VLOOKUP(A11,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" t="str">
+      <c r="H11" t="str">
         <f>VLOOKUP(A11,covid!$A$2:$B$207,1,FALSE)</f>
         <v>ATG</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I11" s="3" t="e">
+        <f>VLOOKUP(A11,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K11" s="3" t="e">
+        <f>VLOOKUP(A11,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -15914,15 +16916,19 @@
         <v>AUS</v>
       </c>
       <c r="H12" t="str">
+        <f>VLOOKUP(A12,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>AUS</v>
+      </c>
+      <c r="I12" t="str">
+        <f>VLOOKUP(A12,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>AUS</v>
+      </c>
+      <c r="K12" t="str">
         <f>VLOOKUP(A12,six!$A$2:$B$112,1,FALSE)</f>
         <v>AUS</v>
       </c>
-      <c r="I12" t="str">
-        <f>VLOOKUP(A12,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>AUS</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -15946,15 +16952,19 @@
         <v>AUT</v>
       </c>
       <c r="H13" t="str">
+        <f>VLOOKUP(A13,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>AUT</v>
+      </c>
+      <c r="I13" t="str">
+        <f>VLOOKUP(A13,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>AUT</v>
+      </c>
+      <c r="K13" t="str">
         <f>VLOOKUP(A13,six!$A$2:$B$112,1,FALSE)</f>
         <v>AUT</v>
       </c>
-      <c r="I13" t="str">
-        <f>VLOOKUP(A13,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>AUT</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -15978,15 +16988,19 @@
         <v>AZE</v>
       </c>
       <c r="H14" t="str">
+        <f>VLOOKUP(A14,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>AZE</v>
+      </c>
+      <c r="I14" t="str">
+        <f>VLOOKUP(A14,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>AZE</v>
+      </c>
+      <c r="K14" t="str">
         <f>VLOOKUP(A14,six!$A$2:$B$112,1,FALSE)</f>
         <v>AZE</v>
       </c>
-      <c r="I14" t="str">
-        <f>VLOOKUP(A14,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>AZE</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>257</v>
       </c>
@@ -16009,16 +17023,20 @@
         <f>VLOOKUP(A15,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>BDI</v>
       </c>
-      <c r="H15" s="3" t="e">
-        <f>VLOOKUP(A15,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I15" t="str">
+      <c r="H15" t="str">
         <f>VLOOKUP(A15,covid!$A$2:$B$207,1,FALSE)</f>
         <v>BDI</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I15" s="3" t="e">
+        <f>VLOOKUP(A15,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K15" s="3" t="e">
+        <f>VLOOKUP(A15,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -16042,15 +17060,19 @@
         <v>BEL</v>
       </c>
       <c r="H16" t="str">
+        <f>VLOOKUP(A16,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>BEL</v>
+      </c>
+      <c r="I16" t="str">
+        <f>VLOOKUP(A16,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>BEL</v>
+      </c>
+      <c r="K16" t="str">
         <f>VLOOKUP(A16,six!$A$2:$B$112,1,FALSE)</f>
         <v>BEL</v>
       </c>
-      <c r="I16" t="str">
-        <f>VLOOKUP(A16,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>BEL</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -16074,15 +17096,19 @@
         <v>BEN</v>
       </c>
       <c r="H17" t="str">
+        <f>VLOOKUP(A17,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>BEN</v>
+      </c>
+      <c r="I17" t="str">
+        <f>VLOOKUP(A17,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>BEN</v>
+      </c>
+      <c r="K17" t="str">
         <f>VLOOKUP(A17,six!$A$2:$B$112,1,FALSE)</f>
         <v>BEN</v>
       </c>
-      <c r="I17" t="str">
-        <f>VLOOKUP(A17,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>BEN</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -16106,15 +17132,19 @@
         <v>BFA</v>
       </c>
       <c r="H18" t="str">
+        <f>VLOOKUP(A18,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>BFA</v>
+      </c>
+      <c r="I18" t="str">
+        <f>VLOOKUP(A18,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>BFA</v>
+      </c>
+      <c r="K18" t="str">
         <f>VLOOKUP(A18,six!$A$2:$B$112,1,FALSE)</f>
         <v>BFA</v>
       </c>
-      <c r="I18" t="str">
-        <f>VLOOKUP(A18,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>BFA</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -16138,15 +17168,19 @@
         <v>BGD</v>
       </c>
       <c r="H19" t="str">
+        <f>VLOOKUP(A19,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>BGD</v>
+      </c>
+      <c r="I19" t="str">
+        <f>VLOOKUP(A19,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>BGD</v>
+      </c>
+      <c r="K19" t="str">
         <f>VLOOKUP(A19,six!$A$2:$B$112,1,FALSE)</f>
         <v>BGD</v>
       </c>
-      <c r="I19" t="str">
-        <f>VLOOKUP(A19,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>BGD</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -16170,15 +17204,19 @@
         <v>BGR</v>
       </c>
       <c r="H20" t="str">
+        <f>VLOOKUP(A20,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>BGR</v>
+      </c>
+      <c r="I20" t="str">
+        <f>VLOOKUP(A20,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>BGR</v>
+      </c>
+      <c r="K20" t="str">
         <f>VLOOKUP(A20,six!$A$2:$B$112,1,FALSE)</f>
         <v>BGR</v>
       </c>
-      <c r="I20" t="str">
-        <f>VLOOKUP(A20,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>BGR</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>237</v>
       </c>
@@ -16201,16 +17239,20 @@
         <f>VLOOKUP(A21,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>BHR</v>
       </c>
-      <c r="H21" s="3" t="e">
-        <f>VLOOKUP(A21,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I21" t="str">
+      <c r="H21" t="str">
         <f>VLOOKUP(A21,covid!$A$2:$B$207,1,FALSE)</f>
         <v>BHR</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I21" s="3" t="e">
+        <f>VLOOKUP(A21,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K21" s="3" t="e">
+        <f>VLOOKUP(A21,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>235</v>
       </c>
@@ -16233,16 +17275,20 @@
         <f>VLOOKUP(A22,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>BHS</v>
       </c>
-      <c r="H22" s="3" t="e">
-        <f>VLOOKUP(A22,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I22" t="str">
+      <c r="H22" t="str">
         <f>VLOOKUP(A22,covid!$A$2:$B$207,1,FALSE)</f>
         <v>BHS</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I22" s="3" t="e">
+        <f>VLOOKUP(A22,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K22" s="3" t="e">
+        <f>VLOOKUP(A22,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -16266,15 +17312,19 @@
         <v>BIH</v>
       </c>
       <c r="H23" t="str">
+        <f>VLOOKUP(A23,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>BIH</v>
+      </c>
+      <c r="I23" t="str">
+        <f>VLOOKUP(A23,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>BIH</v>
+      </c>
+      <c r="K23" t="str">
         <f>VLOOKUP(A23,six!$A$2:$B$112,1,FALSE)</f>
         <v>BIH</v>
       </c>
-      <c r="I23" t="str">
-        <f>VLOOKUP(A23,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>BIH</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -16298,15 +17348,19 @@
         <v>BLR</v>
       </c>
       <c r="H24" t="str">
+        <f>VLOOKUP(A24,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>BLR</v>
+      </c>
+      <c r="I24" t="str">
+        <f>VLOOKUP(A24,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>BLR</v>
+      </c>
+      <c r="K24" t="str">
         <f>VLOOKUP(A24,six!$A$2:$B$112,1,FALSE)</f>
         <v>BLR</v>
       </c>
-      <c r="I24" t="str">
-        <f>VLOOKUP(A24,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>BLR</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>241</v>
       </c>
@@ -16329,16 +17383,20 @@
         <f>VLOOKUP(A25,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>BLZ</v>
       </c>
-      <c r="H25" s="3" t="e">
-        <f>VLOOKUP(A25,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I25" t="str">
+      <c r="H25" t="str">
         <f>VLOOKUP(A25,covid!$A$2:$B$207,1,FALSE)</f>
         <v>BLZ</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I25" s="3" t="e">
+        <f>VLOOKUP(A25,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K25" s="3" t="e">
+        <f>VLOOKUP(A25,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>244</v>
       </c>
@@ -16361,16 +17419,20 @@
         <f>VLOOKUP(A26,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H26" s="1" t="e">
-        <f>VLOOKUP(A26,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I26" t="str">
+      <c r="H26" t="str">
         <f>VLOOKUP(A26,covid!$A$2:$B$207,1,FALSE)</f>
         <v>BMU</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I26" s="1" t="e">
+        <f>VLOOKUP(A26,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K26" s="1" t="e">
+        <f>VLOOKUP(A26,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>248</v>
       </c>
@@ -16393,16 +17455,20 @@
         <f>VLOOKUP(A27,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>BOL</v>
       </c>
-      <c r="H27" s="3" t="e">
-        <f>VLOOKUP(A27,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I27" t="str">
+      <c r="H27" t="str">
         <f>VLOOKUP(A27,covid!$A$2:$B$207,1,FALSE)</f>
         <v>BOL</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I27" s="3" t="e">
+        <f>VLOOKUP(A27,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K27" s="3" t="e">
+        <f>VLOOKUP(A27,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -16426,15 +17492,19 @@
         <v>BRA</v>
       </c>
       <c r="H28" t="str">
+        <f>VLOOKUP(A28,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>BRA</v>
+      </c>
+      <c r="I28" t="str">
+        <f>VLOOKUP(A28,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>BRA</v>
+      </c>
+      <c r="K28" t="str">
         <f>VLOOKUP(A28,six!$A$2:$B$112,1,FALSE)</f>
         <v>BRA</v>
       </c>
-      <c r="I28" t="str">
-        <f>VLOOKUP(A28,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>BRA</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -16457,16 +17527,20 @@
         <f>VLOOKUP(A29,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>BRB</v>
       </c>
-      <c r="H29" s="3" t="e">
-        <f>VLOOKUP(A29,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I29" t="str">
+      <c r="H29" t="str">
         <f>VLOOKUP(A29,covid!$A$2:$B$207,1,FALSE)</f>
         <v>BRB</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I29" s="3" t="e">
+        <f>VLOOKUP(A29,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K29" s="3" t="e">
+        <f>VLOOKUP(A29,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>255</v>
       </c>
@@ -16489,20 +17563,24 @@
         <f>VLOOKUP(A30,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>BRN</v>
       </c>
-      <c r="H30" s="3" t="e">
-        <f>VLOOKUP(A30,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I30" t="str">
+      <c r="H30" t="str">
         <f>VLOOKUP(A30,covid!$A$2:$B$207,1,FALSE)</f>
         <v>BRN</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I30" s="3" t="e">
+        <f>VLOOKUP(A30,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K30" s="3" t="e">
+        <f>VLOOKUP(A30,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>245</v>
       </c>
       <c r="D31" t="str">
@@ -16521,16 +17599,20 @@
         <f>VLOOKUP(A31,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>BTN</v>
       </c>
-      <c r="H31" s="3" t="e">
-        <f>VLOOKUP(A31,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I31" t="str">
+      <c r="H31" t="str">
         <f>VLOOKUP(A31,covid!$A$2:$B$207,1,FALSE)</f>
         <v>BTN</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I31" s="5" t="str">
+        <f>VLOOKUP(A31,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>BTN</v>
+      </c>
+      <c r="K31" s="3" t="e">
+        <f>VLOOKUP(A31,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>251</v>
       </c>
@@ -16553,16 +17635,20 @@
         <f>VLOOKUP(A32,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>BWA</v>
       </c>
-      <c r="H32" s="3" t="e">
-        <f>VLOOKUP(A32,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I32" t="str">
+      <c r="H32" t="str">
         <f>VLOOKUP(A32,covid!$A$2:$B$207,1,FALSE)</f>
         <v>BWA</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I32" s="3" t="e">
+        <f>VLOOKUP(A32,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K32" s="3" t="e">
+        <f>VLOOKUP(A32,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -16586,15 +17672,19 @@
         <v>CAF</v>
       </c>
       <c r="H33" t="str">
+        <f>VLOOKUP(A33,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>CAF</v>
+      </c>
+      <c r="I33" t="str">
+        <f>VLOOKUP(A33,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>CAF</v>
+      </c>
+      <c r="K33" t="str">
         <f>VLOOKUP(A33,six!$A$2:$B$112,1,FALSE)</f>
         <v>CAF</v>
       </c>
-      <c r="I33" t="str">
-        <f>VLOOKUP(A33,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>CAF</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -16618,15 +17708,19 @@
         <v>CAN</v>
       </c>
       <c r="H34" t="str">
+        <f>VLOOKUP(A34,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>CAN</v>
+      </c>
+      <c r="I34" t="str">
+        <f>VLOOKUP(A34,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>CAN</v>
+      </c>
+      <c r="K34" t="str">
         <f>VLOOKUP(A34,six!$A$2:$B$112,1,FALSE)</f>
         <v>CAN</v>
       </c>
-      <c r="I34" t="str">
-        <f>VLOOKUP(A34,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>CAN</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -16650,15 +17744,19 @@
         <v>CHE</v>
       </c>
       <c r="H35" t="str">
+        <f>VLOOKUP(A35,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>CHE</v>
+      </c>
+      <c r="I35" t="str">
+        <f>VLOOKUP(A35,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>CHE</v>
+      </c>
+      <c r="K35" t="str">
         <f>VLOOKUP(A35,six!$A$2:$B$112,1,FALSE)</f>
         <v>CHE</v>
       </c>
-      <c r="I35" t="str">
-        <f>VLOOKUP(A35,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>CHE</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -16682,15 +17780,19 @@
         <v>CHL</v>
       </c>
       <c r="H36" t="str">
+        <f>VLOOKUP(A36,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>CHL</v>
+      </c>
+      <c r="I36" t="str">
+        <f>VLOOKUP(A36,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>CHL</v>
+      </c>
+      <c r="K36" t="str">
         <f>VLOOKUP(A36,six!$A$2:$B$112,1,FALSE)</f>
         <v>CHL</v>
       </c>
-      <c r="I36" t="str">
-        <f>VLOOKUP(A36,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>CHL</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -16714,15 +17816,19 @@
         <v>CHN</v>
       </c>
       <c r="H37" t="str">
+        <f>VLOOKUP(A37,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>CHN</v>
+      </c>
+      <c r="I37" t="str">
+        <f>VLOOKUP(A37,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>CHN</v>
+      </c>
+      <c r="K37" t="str">
         <f>VLOOKUP(A37,six!$A$2:$B$112,1,FALSE)</f>
         <v>CHN</v>
       </c>
-      <c r="I37" t="str">
-        <f>VLOOKUP(A37,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>CHN</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>276</v>
       </c>
@@ -16745,16 +17851,20 @@
         <f>VLOOKUP(A38,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>CIV</v>
       </c>
-      <c r="H38" s="3" t="e">
-        <f>VLOOKUP(A38,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I38" t="str">
+      <c r="H38" t="str">
         <f>VLOOKUP(A38,covid!$A$2:$B$207,1,FALSE)</f>
         <v>CIV</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I38" s="3" t="e">
+        <f>VLOOKUP(A38,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K38" s="3" t="e">
+        <f>VLOOKUP(A38,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>261</v>
       </c>
@@ -16777,16 +17887,20 @@
         <f>VLOOKUP(A39,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>CMR</v>
       </c>
-      <c r="H39" s="3" t="e">
-        <f>VLOOKUP(A39,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I39" t="str">
+      <c r="H39" t="str">
         <f>VLOOKUP(A39,covid!$A$2:$B$207,1,FALSE)</f>
         <v>CMR</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I39" s="3" t="e">
+        <f>VLOOKUP(A39,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K39" s="3" t="e">
+        <f>VLOOKUP(A39,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>283</v>
       </c>
@@ -16809,16 +17923,20 @@
         <f>VLOOKUP(A40,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>COD</v>
       </c>
-      <c r="H40" s="3" t="e">
-        <f>VLOOKUP(A40,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I40" t="str">
+      <c r="H40" t="str">
         <f>VLOOKUP(A40,covid!$A$2:$B$207,1,FALSE)</f>
         <v>COD</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I40" s="3" t="e">
+        <f>VLOOKUP(A40,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K40" s="3" t="e">
+        <f>VLOOKUP(A40,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>274</v>
       </c>
@@ -16841,16 +17959,20 @@
         <f>VLOOKUP(A41,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>COG</v>
       </c>
-      <c r="H41" s="3" t="e">
-        <f>VLOOKUP(A41,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I41" t="str">
+      <c r="H41" t="str">
         <f>VLOOKUP(A41,covid!$A$2:$B$207,1,FALSE)</f>
         <v>COG</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I41" s="3" t="e">
+        <f>VLOOKUP(A41,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K41" s="3" t="e">
+        <f>VLOOKUP(A41,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -16874,15 +17996,19 @@
         <v>COL</v>
       </c>
       <c r="H42" t="str">
+        <f>VLOOKUP(A42,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>COL</v>
+      </c>
+      <c r="I42" t="str">
+        <f>VLOOKUP(A42,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>COL</v>
+      </c>
+      <c r="K42" t="str">
         <f>VLOOKUP(A42,six!$A$2:$B$112,1,FALSE)</f>
         <v>COL</v>
       </c>
-      <c r="I42" t="str">
-        <f>VLOOKUP(A42,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>COL</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>272</v>
       </c>
@@ -16906,15 +18032,19 @@
         <v>COM</v>
       </c>
       <c r="H43" s="3" t="e">
+        <f>VLOOKUP(A43,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I43" s="3" t="e">
+        <f>VLOOKUP(A43,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K43" s="3" t="e">
         <f>VLOOKUP(A43,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I43" s="3" t="e">
-        <f>VLOOKUP(A43,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>263</v>
       </c>
@@ -16937,16 +18067,20 @@
         <f>VLOOKUP(A44,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>CPV</v>
       </c>
-      <c r="H44" s="3" t="e">
-        <f>VLOOKUP(A44,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I44" t="str">
+      <c r="H44" t="str">
         <f>VLOOKUP(A44,covid!$A$2:$B$207,1,FALSE)</f>
         <v>CPV</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I44" s="3" t="e">
+        <f>VLOOKUP(A44,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K44" s="3" t="e">
+        <f>VLOOKUP(A44,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -16970,15 +18104,19 @@
         <v>CRI</v>
       </c>
       <c r="H45" t="str">
+        <f>VLOOKUP(A45,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>CRI</v>
+      </c>
+      <c r="I45" t="str">
+        <f>VLOOKUP(A45,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>CRI</v>
+      </c>
+      <c r="K45" t="str">
         <f>VLOOKUP(A45,six!$A$2:$B$112,1,FALSE)</f>
         <v>CRI</v>
       </c>
-      <c r="I45" t="str">
-        <f>VLOOKUP(A45,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>CRI</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>278</v>
       </c>
@@ -17001,16 +18139,20 @@
         <f>VLOOKUP(A46,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>CUB</v>
       </c>
-      <c r="H46" s="3" t="e">
-        <f>VLOOKUP(A46,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I46" t="str">
+      <c r="H46" t="str">
         <f>VLOOKUP(A46,covid!$A$2:$B$207,1,FALSE)</f>
         <v>CUB</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I46" s="3" t="e">
+        <f>VLOOKUP(A46,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K46" s="3" t="e">
+        <f>VLOOKUP(A46,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>280</v>
       </c>
@@ -17033,16 +18175,20 @@
         <f>VLOOKUP(A47,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H47" s="1" t="e">
-        <f>VLOOKUP(A47,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I47" t="str">
+      <c r="H47" t="str">
         <f>VLOOKUP(A47,covid!$A$2:$B$207,1,FALSE)</f>
         <v>CUW</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I47" s="1" t="e">
+        <f>VLOOKUP(A47,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K47" s="1" t="e">
+        <f>VLOOKUP(A47,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>265</v>
       </c>
@@ -17065,16 +18211,20 @@
         <f>VLOOKUP(A48,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H48" s="1" t="e">
-        <f>VLOOKUP(A48,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I48" t="str">
+      <c r="H48" t="str">
         <f>VLOOKUP(A48,covid!$A$2:$B$207,1,FALSE)</f>
         <v>CYM</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I48" s="1" t="e">
+        <f>VLOOKUP(A48,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K48" s="1" t="e">
+        <f>VLOOKUP(A48,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -17098,15 +18248,19 @@
         <v>CYP</v>
       </c>
       <c r="H49" t="str">
+        <f>VLOOKUP(A49,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>CYP</v>
+      </c>
+      <c r="I49" t="str">
+        <f>VLOOKUP(A49,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>CYP</v>
+      </c>
+      <c r="K49" t="str">
         <f>VLOOKUP(A49,six!$A$2:$B$112,1,FALSE)</f>
         <v>CYP</v>
       </c>
-      <c r="I49" t="str">
-        <f>VLOOKUP(A49,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>CYP</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -17130,15 +18284,19 @@
         <v>CZE</v>
       </c>
       <c r="H50" t="str">
+        <f>VLOOKUP(A50,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>CZE</v>
+      </c>
+      <c r="I50" t="str">
+        <f>VLOOKUP(A50,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>CZE</v>
+      </c>
+      <c r="K50" t="str">
         <f>VLOOKUP(A50,six!$A$2:$B$112,1,FALSE)</f>
         <v>CZE</v>
       </c>
-      <c r="I50" t="str">
-        <f>VLOOKUP(A50,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>CZE</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -17162,15 +18320,19 @@
         <v>DEU</v>
       </c>
       <c r="H51" t="str">
+        <f>VLOOKUP(A51,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>DEU</v>
+      </c>
+      <c r="I51" t="str">
+        <f>VLOOKUP(A51,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>DEU</v>
+      </c>
+      <c r="K51" t="str">
         <f>VLOOKUP(A51,six!$A$2:$B$112,1,FALSE)</f>
         <v>DEU</v>
       </c>
-      <c r="I51" t="str">
-        <f>VLOOKUP(A51,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>DEU</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>285</v>
       </c>
@@ -17193,16 +18355,20 @@
         <f>VLOOKUP(A52,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>DJI</v>
       </c>
-      <c r="H52" s="3" t="e">
-        <f>VLOOKUP(A52,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I52" t="str">
+      <c r="H52" t="str">
         <f>VLOOKUP(A52,covid!$A$2:$B$207,1,FALSE)</f>
         <v>DJI</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I52" s="3" t="e">
+        <f>VLOOKUP(A52,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K52" s="3" t="e">
+        <f>VLOOKUP(A52,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>287</v>
       </c>
@@ -17225,16 +18391,20 @@
         <f>VLOOKUP(A53,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H53" s="1" t="e">
-        <f>VLOOKUP(A53,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I53" t="str">
+      <c r="H53" t="str">
         <f>VLOOKUP(A53,covid!$A$2:$B$207,1,FALSE)</f>
         <v>DMA</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I53" s="1" t="e">
+        <f>VLOOKUP(A53,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K53" s="1" t="e">
+        <f>VLOOKUP(A53,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -17258,15 +18428,19 @@
         <v>DNK</v>
       </c>
       <c r="H54" t="str">
+        <f>VLOOKUP(A54,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>DNK</v>
+      </c>
+      <c r="I54" t="str">
+        <f>VLOOKUP(A54,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>DNK</v>
+      </c>
+      <c r="K54" t="str">
         <f>VLOOKUP(A54,six!$A$2:$B$112,1,FALSE)</f>
         <v>DNK</v>
       </c>
-      <c r="I54" t="str">
-        <f>VLOOKUP(A54,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>DNK</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -17290,15 +18464,19 @@
         <v>DOM</v>
       </c>
       <c r="H55" t="str">
+        <f>VLOOKUP(A55,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>DOM</v>
+      </c>
+      <c r="I55" t="str">
+        <f>VLOOKUP(A55,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>DOM</v>
+      </c>
+      <c r="K55" t="str">
         <f>VLOOKUP(A55,six!$A$2:$B$112,1,FALSE)</f>
         <v>DOM</v>
       </c>
-      <c r="I55" t="str">
-        <f>VLOOKUP(A55,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>DOM</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -17322,15 +18500,19 @@
         <v>DZA</v>
       </c>
       <c r="H56" t="str">
+        <f>VLOOKUP(A56,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>DZA</v>
+      </c>
+      <c r="I56" t="str">
+        <f>VLOOKUP(A56,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>DZA</v>
+      </c>
+      <c r="K56" t="str">
         <f>VLOOKUP(A56,six!$A$2:$B$112,1,FALSE)</f>
         <v>DZA</v>
       </c>
-      <c r="I56" t="str">
-        <f>VLOOKUP(A56,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>DZA</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -17354,15 +18536,19 @@
         <v>ECU</v>
       </c>
       <c r="H57" t="str">
+        <f>VLOOKUP(A57,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>ECU</v>
+      </c>
+      <c r="I57" t="str">
+        <f>VLOOKUP(A57,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>ECU</v>
+      </c>
+      <c r="K57" t="str">
         <f>VLOOKUP(A57,six!$A$2:$B$112,1,FALSE)</f>
         <v>ECU</v>
       </c>
-      <c r="I57" t="str">
-        <f>VLOOKUP(A57,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>ECU</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -17386,15 +18572,19 @@
         <v>EGY</v>
       </c>
       <c r="H58" t="str">
+        <f>VLOOKUP(A58,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>EGY</v>
+      </c>
+      <c r="I58" t="str">
+        <f>VLOOKUP(A58,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>EGY</v>
+      </c>
+      <c r="K58" t="str">
         <f>VLOOKUP(A58,six!$A$2:$B$112,1,FALSE)</f>
         <v>EGY</v>
       </c>
-      <c r="I58" t="str">
-        <f>VLOOKUP(A58,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>EGY</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>292</v>
       </c>
@@ -17417,16 +18607,20 @@
         <f>VLOOKUP(A59,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>ERI</v>
       </c>
-      <c r="H59" s="3" t="e">
-        <f>VLOOKUP(A59,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I59" t="str">
+      <c r="H59" t="str">
         <f>VLOOKUP(A59,covid!$A$2:$B$207,1,FALSE)</f>
         <v>ERI</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I59" s="3" t="e">
+        <f>VLOOKUP(A59,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K59" s="3" t="e">
+        <f>VLOOKUP(A59,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -17450,15 +18644,19 @@
         <v>ESP</v>
       </c>
       <c r="H60" t="str">
+        <f>VLOOKUP(A60,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>ESP</v>
+      </c>
+      <c r="I60" t="str">
+        <f>VLOOKUP(A60,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>ESP</v>
+      </c>
+      <c r="K60" t="str">
         <f>VLOOKUP(A60,six!$A$2:$B$112,1,FALSE)</f>
         <v>ESP</v>
       </c>
-      <c r="I60" t="str">
-        <f>VLOOKUP(A60,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>ESP</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -17482,15 +18680,19 @@
         <v>EST</v>
       </c>
       <c r="H61" t="str">
+        <f>VLOOKUP(A61,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>EST</v>
+      </c>
+      <c r="I61" t="str">
+        <f>VLOOKUP(A61,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>EST</v>
+      </c>
+      <c r="K61" t="str">
         <f>VLOOKUP(A61,six!$A$2:$B$112,1,FALSE)</f>
         <v>EST</v>
       </c>
-      <c r="I61" t="str">
-        <f>VLOOKUP(A61,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>EST</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -17514,15 +18716,19 @@
         <v>ETH</v>
       </c>
       <c r="H62" t="str">
+        <f>VLOOKUP(A62,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>ETH</v>
+      </c>
+      <c r="I62" t="str">
+        <f>VLOOKUP(A62,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>ETH</v>
+      </c>
+      <c r="K62" t="str">
         <f>VLOOKUP(A62,six!$A$2:$B$112,1,FALSE)</f>
         <v>ETH</v>
       </c>
-      <c r="I62" t="str">
-        <f>VLOOKUP(A62,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>ETH</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -17546,19 +18752,23 @@
         <v>FIN</v>
       </c>
       <c r="H63" t="str">
+        <f>VLOOKUP(A63,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>FIN</v>
+      </c>
+      <c r="I63" t="str">
+        <f>VLOOKUP(A63,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>FIN</v>
+      </c>
+      <c r="K63" t="str">
         <f>VLOOKUP(A63,six!$A$2:$B$112,1,FALSE)</f>
         <v>FIN</v>
       </c>
-      <c r="I63" t="str">
-        <f>VLOOKUP(A63,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>FIN</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="5" t="s">
         <v>295</v>
       </c>
       <c r="D64" t="str">
@@ -17577,16 +18787,20 @@
         <f>VLOOKUP(A64,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>FJI</v>
       </c>
-      <c r="H64" s="3" t="e">
-        <f>VLOOKUP(A64,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I64" t="str">
+      <c r="H64" t="str">
         <f>VLOOKUP(A64,covid!$A$2:$B$207,1,FALSE)</f>
         <v>FJI</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I64" s="5" t="str">
+        <f>VLOOKUP(A64,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>FJI</v>
+      </c>
+      <c r="K64" s="3" t="e">
+        <f>VLOOKUP(A64,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -17610,15 +18824,19 @@
         <v>FRA</v>
       </c>
       <c r="H65" t="str">
+        <f>VLOOKUP(A65,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>FRA</v>
+      </c>
+      <c r="I65" t="str">
+        <f>VLOOKUP(A65,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>FRA</v>
+      </c>
+      <c r="K65" t="str">
         <f>VLOOKUP(A65,six!$A$2:$B$112,1,FALSE)</f>
         <v>FRA</v>
       </c>
-      <c r="I65" t="str">
-        <f>VLOOKUP(A65,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>FRA</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>294</v>
       </c>
@@ -17641,16 +18859,20 @@
         <f>VLOOKUP(A66,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H66" s="1" t="e">
-        <f>VLOOKUP(A66,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I66" t="str">
+      <c r="H66" t="str">
         <f>VLOOKUP(A66,covid!$A$2:$B$207,1,FALSE)</f>
         <v>FRO</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I66" s="1" t="e">
+        <f>VLOOKUP(A66,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K66" s="1" t="e">
+        <f>VLOOKUP(A66,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>362</v>
       </c>
@@ -17674,15 +18896,19 @@
         <v>FSM</v>
       </c>
       <c r="H67" s="3" t="e">
+        <f>VLOOKUP(A67,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I67" s="3" t="e">
+        <f>VLOOKUP(A67,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K67" s="3" t="e">
         <f>VLOOKUP(A67,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I67" s="3" t="e">
-        <f>VLOOKUP(A67,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>300</v>
       </c>
@@ -17705,16 +18931,20 @@
         <f>VLOOKUP(A68,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>GAB</v>
       </c>
-      <c r="H68" s="3" t="e">
-        <f>VLOOKUP(A68,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I68" t="str">
+      <c r="H68" t="str">
         <f>VLOOKUP(A68,covid!$A$2:$B$207,1,FALSE)</f>
         <v>GAB</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I68" s="3" t="e">
+        <f>VLOOKUP(A68,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K68" s="3" t="e">
+        <f>VLOOKUP(A68,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -17738,15 +18968,19 @@
         <v>GBR</v>
       </c>
       <c r="H69" t="str">
+        <f>VLOOKUP(A69,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>GBR</v>
+      </c>
+      <c r="I69" t="str">
+        <f>VLOOKUP(A69,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>GBR</v>
+      </c>
+      <c r="K69" t="str">
         <f>VLOOKUP(A69,six!$A$2:$B$112,1,FALSE)</f>
         <v>GBR</v>
       </c>
-      <c r="I69" t="str">
-        <f>VLOOKUP(A69,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>GBR</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -17770,15 +19004,19 @@
         <v>GEO</v>
       </c>
       <c r="H70" t="str">
+        <f>VLOOKUP(A70,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>GEO</v>
+      </c>
+      <c r="I70" t="str">
+        <f>VLOOKUP(A70,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>GEO</v>
+      </c>
+      <c r="K70" t="str">
         <f>VLOOKUP(A70,six!$A$2:$B$112,1,FALSE)</f>
         <v>GEO</v>
       </c>
-      <c r="I70" t="str">
-        <f>VLOOKUP(A70,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>GEO</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -17802,15 +19040,19 @@
         <v>GHA</v>
       </c>
       <c r="H71" t="str">
+        <f>VLOOKUP(A71,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>GHA</v>
+      </c>
+      <c r="I71" t="str">
+        <f>VLOOKUP(A71,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>GHA</v>
+      </c>
+      <c r="K71" t="str">
         <f>VLOOKUP(A71,six!$A$2:$B$112,1,FALSE)</f>
         <v>GHA</v>
       </c>
-      <c r="I71" t="str">
-        <f>VLOOKUP(A71,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>GHA</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>304</v>
       </c>
@@ -17833,16 +19075,20 @@
         <f>VLOOKUP(A72,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H72" s="1" t="e">
-        <f>VLOOKUP(A72,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I72" t="str">
+      <c r="H72" t="str">
         <f>VLOOKUP(A72,covid!$A$2:$B$207,1,FALSE)</f>
         <v>GIB</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I72" s="1" t="e">
+        <f>VLOOKUP(A72,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K72" s="1" t="e">
+        <f>VLOOKUP(A72,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>312</v>
       </c>
@@ -17865,16 +19111,20 @@
         <f>VLOOKUP(A73,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>GIN</v>
       </c>
-      <c r="H73" s="3" t="e">
-        <f>VLOOKUP(A73,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I73" t="str">
+      <c r="H73" t="str">
         <f>VLOOKUP(A73,covid!$A$2:$B$207,1,FALSE)</f>
         <v>GIN</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I73" s="3" t="e">
+        <f>VLOOKUP(A73,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K73" s="3" t="e">
+        <f>VLOOKUP(A73,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>302</v>
       </c>
@@ -17897,16 +19147,20 @@
         <f>VLOOKUP(A74,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>GMB</v>
       </c>
-      <c r="H74" s="3" t="e">
-        <f>VLOOKUP(A74,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I74" t="str">
+      <c r="H74" t="str">
         <f>VLOOKUP(A74,covid!$A$2:$B$207,1,FALSE)</f>
         <v>GMB</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I74" s="3" t="e">
+        <f>VLOOKUP(A74,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K74" s="3" t="e">
+        <f>VLOOKUP(A74,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>314</v>
       </c>
@@ -17929,16 +19183,20 @@
         <f>VLOOKUP(A75,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>GNB</v>
       </c>
-      <c r="H75" s="3" t="e">
-        <f>VLOOKUP(A75,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I75" t="str">
+      <c r="H75" t="str">
         <f>VLOOKUP(A75,covid!$A$2:$B$207,1,FALSE)</f>
         <v>GNB</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I75" s="3" t="e">
+        <f>VLOOKUP(A75,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K75" s="3" t="e">
+        <f>VLOOKUP(A75,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>290</v>
       </c>
@@ -17961,16 +19219,20 @@
         <f>VLOOKUP(A76,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>GNQ</v>
       </c>
-      <c r="H76" s="3" t="e">
-        <f>VLOOKUP(A76,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I76" t="str">
+      <c r="H76" t="str">
         <f>VLOOKUP(A76,covid!$A$2:$B$207,1,FALSE)</f>
         <v>GNQ</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I76" s="3" t="e">
+        <f>VLOOKUP(A76,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K76" s="3" t="e">
+        <f>VLOOKUP(A76,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -17994,15 +19256,19 @@
         <v>GRC</v>
       </c>
       <c r="H77" t="str">
+        <f>VLOOKUP(A77,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>GRC</v>
+      </c>
+      <c r="I77" t="str">
+        <f>VLOOKUP(A77,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>GRC</v>
+      </c>
+      <c r="K77" t="str">
         <f>VLOOKUP(A77,six!$A$2:$B$112,1,FALSE)</f>
         <v>GRC</v>
       </c>
-      <c r="I77" t="str">
-        <f>VLOOKUP(A77,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>GRC</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>308</v>
       </c>
@@ -18025,16 +19291,20 @@
         <f>VLOOKUP(A78,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>GRD</v>
       </c>
-      <c r="H78" s="3" t="e">
-        <f>VLOOKUP(A78,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I78" t="str">
+      <c r="H78" t="str">
         <f>VLOOKUP(A78,covid!$A$2:$B$207,1,FALSE)</f>
         <v>GRD</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I78" s="3" t="e">
+        <f>VLOOKUP(A78,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K78" s="3" t="e">
+        <f>VLOOKUP(A78,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -18057,16 +19327,20 @@
         <f>VLOOKUP(A79,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H79" s="1" t="e">
-        <f>VLOOKUP(A79,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I79" t="str">
+      <c r="H79" t="str">
         <f>VLOOKUP(A79,covid!$A$2:$B$207,1,FALSE)</f>
         <v>GRL</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I79" s="1" t="e">
+        <f>VLOOKUP(A79,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K79" s="1" t="e">
+        <f>VLOOKUP(A79,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -18090,15 +19364,19 @@
         <v>GTM</v>
       </c>
       <c r="H80" t="str">
+        <f>VLOOKUP(A80,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>GTM</v>
+      </c>
+      <c r="I80" t="str">
+        <f>VLOOKUP(A80,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>GTM</v>
+      </c>
+      <c r="K80" t="str">
         <f>VLOOKUP(A80,six!$A$2:$B$112,1,FALSE)</f>
         <v>GTM</v>
       </c>
-      <c r="I80" t="str">
-        <f>VLOOKUP(A80,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>GTM</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>310</v>
       </c>
@@ -18121,16 +19399,20 @@
         <f>VLOOKUP(A81,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>GUM</v>
       </c>
-      <c r="H81" s="3" t="e">
-        <f>VLOOKUP(A81,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I81" t="str">
+      <c r="H81" t="str">
         <f>VLOOKUP(A81,covid!$A$2:$B$207,1,FALSE)</f>
         <v>GUM</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I81" s="3" t="e">
+        <f>VLOOKUP(A81,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K81" s="3" t="e">
+        <f>VLOOKUP(A81,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>316</v>
       </c>
@@ -18153,20 +19435,24 @@
         <f>VLOOKUP(A82,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>GUY</v>
       </c>
-      <c r="H82" s="3" t="e">
-        <f>VLOOKUP(A82,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I82" t="str">
+      <c r="H82" t="str">
         <f>VLOOKUP(A82,covid!$A$2:$B$207,1,FALSE)</f>
         <v>GUY</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I82" s="3" t="e">
+        <f>VLOOKUP(A82,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K82" s="3" t="e">
+        <f>VLOOKUP(A82,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D83" t="str">
@@ -18185,20 +19471,24 @@
         <f>VLOOKUP(A83,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>HKG</v>
       </c>
-      <c r="H83" t="str">
+      <c r="H83" s="4" t="e">
+        <f>VLOOKUP(A83,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f>VLOOKUP(A83,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>HKG</v>
+      </c>
+      <c r="K83" t="str">
         <f>VLOOKUP(A83,six!$A$2:$B$112,1,FALSE)</f>
         <v>HKG</v>
       </c>
-      <c r="I83" s="4" t="e">
-        <f>VLOOKUP(A83,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>320</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="5" t="s">
         <v>319</v>
       </c>
       <c r="D84" t="str">
@@ -18217,16 +19507,20 @@
         <f>VLOOKUP(A84,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>HND</v>
       </c>
-      <c r="H84" s="3" t="e">
-        <f>VLOOKUP(A84,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I84" t="str">
+      <c r="H84" t="str">
         <f>VLOOKUP(A84,covid!$A$2:$B$207,1,FALSE)</f>
         <v>HND</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I84" s="5" t="str">
+        <f>VLOOKUP(A84,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>HND</v>
+      </c>
+      <c r="K84" s="3" t="e">
+        <f>VLOOKUP(A84,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>52</v>
       </c>
@@ -18250,15 +19544,19 @@
         <v>HRV</v>
       </c>
       <c r="H85" t="str">
+        <f>VLOOKUP(A85,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>HRV</v>
+      </c>
+      <c r="I85" t="str">
+        <f>VLOOKUP(A85,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>HRV</v>
+      </c>
+      <c r="K85" t="str">
         <f>VLOOKUP(A85,six!$A$2:$B$112,1,FALSE)</f>
         <v>HRV</v>
       </c>
-      <c r="I85" t="str">
-        <f>VLOOKUP(A85,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>HRV</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>318</v>
       </c>
@@ -18281,16 +19579,20 @@
         <f>VLOOKUP(A86,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>HTI</v>
       </c>
-      <c r="H86" s="3" t="e">
-        <f>VLOOKUP(A86,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I86" t="str">
+      <c r="H86" t="str">
         <f>VLOOKUP(A86,covid!$A$2:$B$207,1,FALSE)</f>
         <v>HTI</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I86" s="3" t="e">
+        <f>VLOOKUP(A86,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K86" s="3" t="e">
+        <f>VLOOKUP(A86,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -18314,15 +19616,19 @@
         <v>HUN</v>
       </c>
       <c r="H87" t="str">
+        <f>VLOOKUP(A87,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>HUN</v>
+      </c>
+      <c r="I87" t="str">
+        <f>VLOOKUP(A87,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>HUN</v>
+      </c>
+      <c r="K87" t="str">
         <f>VLOOKUP(A87,six!$A$2:$B$112,1,FALSE)</f>
         <v>HUN</v>
       </c>
-      <c r="I87" t="str">
-        <f>VLOOKUP(A87,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>HUN</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -18346,15 +19652,19 @@
         <v>IDN</v>
       </c>
       <c r="H88" t="str">
+        <f>VLOOKUP(A88,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>IDN</v>
+      </c>
+      <c r="I88" t="str">
+        <f>VLOOKUP(A88,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>IDN</v>
+      </c>
+      <c r="K88" t="str">
         <f>VLOOKUP(A88,six!$A$2:$B$112,1,FALSE)</f>
         <v>IDN</v>
       </c>
-      <c r="I88" t="str">
-        <f>VLOOKUP(A88,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>IDN</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>322</v>
       </c>
@@ -18377,16 +19687,20 @@
         <f>VLOOKUP(A89,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H89" s="1" t="e">
-        <f>VLOOKUP(A89,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I89" t="str">
+      <c r="H89" t="str">
         <f>VLOOKUP(A89,covid!$A$2:$B$207,1,FALSE)</f>
         <v>IMN</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I89" s="1" t="e">
+        <f>VLOOKUP(A89,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K89" s="1" t="e">
+        <f>VLOOKUP(A89,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -18410,15 +19724,19 @@
         <v>IND</v>
       </c>
       <c r="H90" t="str">
+        <f>VLOOKUP(A90,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>IND</v>
+      </c>
+      <c r="I90" t="str">
+        <f>VLOOKUP(A90,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>IND</v>
+      </c>
+      <c r="K90" t="str">
         <f>VLOOKUP(A90,six!$A$2:$B$112,1,FALSE)</f>
         <v>IND</v>
       </c>
-      <c r="I90" t="str">
-        <f>VLOOKUP(A90,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>IND</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -18442,15 +19760,19 @@
         <v>IRL</v>
       </c>
       <c r="H91" t="str">
+        <f>VLOOKUP(A91,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>IRL</v>
+      </c>
+      <c r="I91" t="str">
+        <f>VLOOKUP(A91,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>IRL</v>
+      </c>
+      <c r="K91" t="str">
         <f>VLOOKUP(A91,six!$A$2:$B$112,1,FALSE)</f>
         <v>IRL</v>
       </c>
-      <c r="I91" t="str">
-        <f>VLOOKUP(A91,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>IRL</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -18474,15 +19796,19 @@
         <v>IRN</v>
       </c>
       <c r="H92" t="str">
+        <f>VLOOKUP(A92,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>IRN</v>
+      </c>
+      <c r="I92" t="str">
+        <f>VLOOKUP(A92,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>IRN</v>
+      </c>
+      <c r="K92" t="str">
         <f>VLOOKUP(A92,six!$A$2:$B$112,1,FALSE)</f>
         <v>IRN</v>
       </c>
-      <c r="I92" t="str">
-        <f>VLOOKUP(A92,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>IRN</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -18506,15 +19832,19 @@
         <v>IRQ</v>
       </c>
       <c r="H93" t="str">
+        <f>VLOOKUP(A93,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>IRQ</v>
+      </c>
+      <c r="I93" t="str">
+        <f>VLOOKUP(A93,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>IRQ</v>
+      </c>
+      <c r="K93" t="str">
         <f>VLOOKUP(A93,six!$A$2:$B$112,1,FALSE)</f>
         <v>IRQ</v>
       </c>
-      <c r="I93" t="str">
-        <f>VLOOKUP(A93,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>IRQ</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -18538,15 +19868,19 @@
         <v>ISL</v>
       </c>
       <c r="H94" t="str">
+        <f>VLOOKUP(A94,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>ISL</v>
+      </c>
+      <c r="I94" t="str">
+        <f>VLOOKUP(A94,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>ISL</v>
+      </c>
+      <c r="K94" t="str">
         <f>VLOOKUP(A94,six!$A$2:$B$112,1,FALSE)</f>
         <v>ISL</v>
       </c>
-      <c r="I94" t="str">
-        <f>VLOOKUP(A94,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>ISL</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -18570,15 +19904,19 @@
         <v>ISR</v>
       </c>
       <c r="H95" t="str">
+        <f>VLOOKUP(A95,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>ISR</v>
+      </c>
+      <c r="I95" t="str">
+        <f>VLOOKUP(A95,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>ISR</v>
+      </c>
+      <c r="K95" t="str">
         <f>VLOOKUP(A95,six!$A$2:$B$112,1,FALSE)</f>
         <v>ISR</v>
       </c>
-      <c r="I95" t="str">
-        <f>VLOOKUP(A95,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>ISR</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -18602,15 +19940,19 @@
         <v>ITA</v>
       </c>
       <c r="H96" t="str">
+        <f>VLOOKUP(A96,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>ITA</v>
+      </c>
+      <c r="I96" t="str">
+        <f>VLOOKUP(A96,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>ITA</v>
+      </c>
+      <c r="K96" t="str">
         <f>VLOOKUP(A96,six!$A$2:$B$112,1,FALSE)</f>
         <v>ITA</v>
       </c>
-      <c r="I96" t="str">
-        <f>VLOOKUP(A96,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>ITA</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -18634,15 +19976,19 @@
         <v>JAM</v>
       </c>
       <c r="H97" t="str">
+        <f>VLOOKUP(A97,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>JAM</v>
+      </c>
+      <c r="I97" t="str">
+        <f>VLOOKUP(A97,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>JAM</v>
+      </c>
+      <c r="K97" t="str">
         <f>VLOOKUP(A97,six!$A$2:$B$112,1,FALSE)</f>
         <v>JAM</v>
       </c>
-      <c r="I97" t="str">
-        <f>VLOOKUP(A97,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>JAM</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -18666,15 +20012,19 @@
         <v>JOR</v>
       </c>
       <c r="H98" t="str">
+        <f>VLOOKUP(A98,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>JOR</v>
+      </c>
+      <c r="I98" t="str">
+        <f>VLOOKUP(A98,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>JOR</v>
+      </c>
+      <c r="K98" t="str">
         <f>VLOOKUP(A98,six!$A$2:$B$112,1,FALSE)</f>
         <v>JOR</v>
       </c>
-      <c r="I98" t="str">
-        <f>VLOOKUP(A98,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>JOR</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -18698,15 +20048,19 @@
         <v>JPN</v>
       </c>
       <c r="H99" t="str">
+        <f>VLOOKUP(A99,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>JPN</v>
+      </c>
+      <c r="I99" t="str">
+        <f>VLOOKUP(A99,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>JPN</v>
+      </c>
+      <c r="K99" t="str">
         <f>VLOOKUP(A99,six!$A$2:$B$112,1,FALSE)</f>
         <v>JPN</v>
       </c>
-      <c r="I99" t="str">
-        <f>VLOOKUP(A99,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>JPN</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>324</v>
       </c>
@@ -18729,20 +20083,24 @@
         <f>VLOOKUP(A100,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>KAZ</v>
       </c>
-      <c r="H100" s="3" t="e">
-        <f>VLOOKUP(A100,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I100" t="str">
+      <c r="H100" t="str">
         <f>VLOOKUP(A100,covid!$A$2:$B$207,1,FALSE)</f>
         <v>KAZ</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I100" s="3" t="e">
+        <f>VLOOKUP(A100,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K100" s="3" t="e">
+        <f>VLOOKUP(A100,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>326</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="5" t="s">
         <v>325</v>
       </c>
       <c r="D101" t="str">
@@ -18761,16 +20119,20 @@
         <f>VLOOKUP(A101,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>KEN</v>
       </c>
-      <c r="H101" s="3" t="e">
-        <f>VLOOKUP(A101,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I101" t="str">
+      <c r="H101" t="str">
         <f>VLOOKUP(A101,covid!$A$2:$B$207,1,FALSE)</f>
         <v>KEN</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I101" s="5" t="str">
+        <f>VLOOKUP(A101,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>KEN</v>
+      </c>
+      <c r="K101" s="3" t="e">
+        <f>VLOOKUP(A101,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -18794,15 +20156,19 @@
         <v>KGZ</v>
       </c>
       <c r="H102" t="str">
+        <f>VLOOKUP(A102,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>KGZ</v>
+      </c>
+      <c r="I102" t="str">
+        <f>VLOOKUP(A102,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>KGZ</v>
+      </c>
+      <c r="K102" t="str">
         <f>VLOOKUP(A102,six!$A$2:$B$112,1,FALSE)</f>
         <v>KGZ</v>
       </c>
-      <c r="I102" t="str">
-        <f>VLOOKUP(A102,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>KGZ</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>259</v>
       </c>
@@ -18825,16 +20191,20 @@
         <f>VLOOKUP(A103,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>KHM</v>
       </c>
-      <c r="H103" s="3" t="e">
-        <f>VLOOKUP(A103,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I103" t="str">
+      <c r="H103" t="str">
         <f>VLOOKUP(A103,covid!$A$2:$B$207,1,FALSE)</f>
         <v>KHM</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I103" s="3" t="e">
+        <f>VLOOKUP(A103,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K103" s="3" t="e">
+        <f>VLOOKUP(A103,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>328</v>
       </c>
@@ -18858,15 +20228,19 @@
         <v>KIR</v>
       </c>
       <c r="H104" s="3" t="e">
+        <f>VLOOKUP(A104,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I104" s="3" t="e">
+        <f>VLOOKUP(A104,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K104" s="3" t="e">
         <f>VLOOKUP(A104,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I104" s="3" t="e">
-        <f>VLOOKUP(A104,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>400</v>
       </c>
@@ -18889,16 +20263,20 @@
         <f>VLOOKUP(A105,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H105" s="1" t="e">
-        <f>VLOOKUP(A105,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I105" t="str">
+      <c r="H105" t="str">
         <f>VLOOKUP(A105,covid!$A$2:$B$207,1,FALSE)</f>
         <v>KNA</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I105" s="1" t="e">
+        <f>VLOOKUP(A105,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K105" s="1" t="e">
+        <f>VLOOKUP(A105,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -18922,19 +20300,23 @@
         <v>KOR</v>
       </c>
       <c r="H106" t="str">
+        <f>VLOOKUP(A106,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>KOR</v>
+      </c>
+      <c r="I106" t="str">
+        <f>VLOOKUP(A106,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>KOR</v>
+      </c>
+      <c r="K106" t="str">
         <f>VLOOKUP(A106,six!$A$2:$B$112,1,FALSE)</f>
         <v>KOR</v>
       </c>
-      <c r="I106" t="str">
-        <f>VLOOKUP(A106,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>KOR</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>332</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="5" t="s">
         <v>331</v>
       </c>
       <c r="D107" t="str">
@@ -18953,16 +20335,20 @@
         <f>VLOOKUP(A107,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>KWT</v>
       </c>
-      <c r="H107" s="3" t="e">
-        <f>VLOOKUP(A107,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I107" t="str">
+      <c r="H107" t="str">
         <f>VLOOKUP(A107,covid!$A$2:$B$207,1,FALSE)</f>
         <v>KWT</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I107" s="5" t="str">
+        <f>VLOOKUP(A107,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>KWT</v>
+      </c>
+      <c r="K107" s="3" t="e">
+        <f>VLOOKUP(A107,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>335</v>
       </c>
@@ -18985,16 +20371,20 @@
         <f>VLOOKUP(A108,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>LAO</v>
       </c>
-      <c r="H108" s="3" t="e">
-        <f>VLOOKUP(A108,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I108" t="str">
+      <c r="H108" t="str">
         <f>VLOOKUP(A108,covid!$A$2:$B$207,1,FALSE)</f>
         <v>LAO</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I108" s="3" t="e">
+        <f>VLOOKUP(A108,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K108" s="3" t="e">
+        <f>VLOOKUP(A108,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>337</v>
       </c>
@@ -19017,16 +20407,20 @@
         <f>VLOOKUP(A109,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>LBN</v>
       </c>
-      <c r="H109" s="3" t="e">
-        <f>VLOOKUP(A109,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I109" t="str">
+      <c r="H109" t="str">
         <f>VLOOKUP(A109,covid!$A$2:$B$207,1,FALSE)</f>
         <v>LBN</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I109" s="3" t="e">
+        <f>VLOOKUP(A109,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K109" s="3" t="e">
+        <f>VLOOKUP(A109,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>341</v>
       </c>
@@ -19049,16 +20443,20 @@
         <f>VLOOKUP(A110,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>LBR</v>
       </c>
-      <c r="H110" s="3" t="e">
-        <f>VLOOKUP(A110,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I110" t="str">
+      <c r="H110" t="str">
         <f>VLOOKUP(A110,covid!$A$2:$B$207,1,FALSE)</f>
         <v>LBR</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I110" s="3" t="e">
+        <f>VLOOKUP(A110,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K110" s="3" t="e">
+        <f>VLOOKUP(A110,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>343</v>
       </c>
@@ -19081,16 +20479,20 @@
         <f>VLOOKUP(A111,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>LBY</v>
       </c>
-      <c r="H111" s="3" t="e">
-        <f>VLOOKUP(A111,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I111" t="str">
+      <c r="H111" t="str">
         <f>VLOOKUP(A111,covid!$A$2:$B$207,1,FALSE)</f>
         <v>LBY</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I111" s="3" t="e">
+        <f>VLOOKUP(A111,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K111" s="3" t="e">
+        <f>VLOOKUP(A111,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>402</v>
       </c>
@@ -19113,16 +20515,20 @@
         <f>VLOOKUP(A112,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>LCA</v>
       </c>
-      <c r="H112" s="3" t="e">
-        <f>VLOOKUP(A112,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I112" t="str">
+      <c r="H112" t="str">
         <f>VLOOKUP(A112,covid!$A$2:$B$207,1,FALSE)</f>
         <v>LCA</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I112" s="3" t="e">
+        <f>VLOOKUP(A112,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K112" s="3" t="e">
+        <f>VLOOKUP(A112,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>345</v>
       </c>
@@ -19145,20 +20551,24 @@
         <f>VLOOKUP(A113,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H113" s="1" t="e">
-        <f>VLOOKUP(A113,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I113" t="str">
+      <c r="H113" t="str">
         <f>VLOOKUP(A113,covid!$A$2:$B$207,1,FALSE)</f>
         <v>LIE</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I113" s="1" t="e">
+        <f>VLOOKUP(A113,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K113" s="1" t="e">
+        <f>VLOOKUP(A113,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>431</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="5" t="s">
         <v>430</v>
       </c>
       <c r="D114" t="str">
@@ -19177,16 +20587,20 @@
         <f>VLOOKUP(A114,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>LKA</v>
       </c>
-      <c r="H114" s="3" t="e">
-        <f>VLOOKUP(A114,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I114" t="str">
+      <c r="H114" t="str">
         <f>VLOOKUP(A114,covid!$A$2:$B$207,1,FALSE)</f>
         <v>LKA</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I114" s="5" t="str">
+        <f>VLOOKUP(A114,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>LKA</v>
+      </c>
+      <c r="K114" s="3" t="e">
+        <f>VLOOKUP(A114,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>339</v>
       </c>
@@ -19210,15 +20624,19 @@
         <v>LSO</v>
       </c>
       <c r="H115" s="3" t="e">
+        <f>VLOOKUP(A115,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I115" s="3" t="e">
+        <f>VLOOKUP(A115,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K115" s="3" t="e">
         <f>VLOOKUP(A115,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I115" s="3" t="e">
-        <f>VLOOKUP(A115,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -19242,15 +20660,19 @@
         <v>LTU</v>
       </c>
       <c r="H116" t="str">
+        <f>VLOOKUP(A116,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>LTU</v>
+      </c>
+      <c r="I116" t="str">
+        <f>VLOOKUP(A116,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>LTU</v>
+      </c>
+      <c r="K116" t="str">
         <f>VLOOKUP(A116,six!$A$2:$B$112,1,FALSE)</f>
         <v>LTU</v>
       </c>
-      <c r="I116" t="str">
-        <f>VLOOKUP(A116,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>LTU</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>124</v>
       </c>
@@ -19274,15 +20696,19 @@
         <v>LUX</v>
       </c>
       <c r="H117" t="str">
+        <f>VLOOKUP(A117,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>LUX</v>
+      </c>
+      <c r="I117" t="str">
+        <f>VLOOKUP(A117,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>LUX</v>
+      </c>
+      <c r="K117" t="str">
         <f>VLOOKUP(A117,six!$A$2:$B$112,1,FALSE)</f>
         <v>LUX</v>
       </c>
-      <c r="I117" t="str">
-        <f>VLOOKUP(A117,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>LUX</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -19306,15 +20732,19 @@
         <v>LVA</v>
       </c>
       <c r="H118" t="str">
+        <f>VLOOKUP(A118,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>LVA</v>
+      </c>
+      <c r="I118" t="str">
+        <f>VLOOKUP(A118,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>LVA</v>
+      </c>
+      <c r="K118" t="str">
         <f>VLOOKUP(A118,six!$A$2:$B$112,1,FALSE)</f>
         <v>LVA</v>
       </c>
-      <c r="I118" t="str">
-        <f>VLOOKUP(A118,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>LVA</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>347</v>
       </c>
@@ -19338,15 +20768,19 @@
         <v>MAC</v>
       </c>
       <c r="H119" s="3" t="e">
+        <f>VLOOKUP(A119,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I119" s="3" t="e">
+        <f>VLOOKUP(A119,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K119" s="3" t="e">
         <f>VLOOKUP(A119,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I119" s="3" t="e">
-        <f>VLOOKUP(A119,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>404</v>
       </c>
@@ -19370,15 +20804,19 @@
         <v>#N/A</v>
       </c>
       <c r="H120" s="1" t="e">
+        <f>VLOOKUP(A120,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I120" s="1" t="e">
+        <f>VLOOKUP(A120,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K120" s="1" t="e">
         <f>VLOOKUP(A120,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I120" s="1" t="e">
-        <f>VLOOKUP(A120,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -19402,15 +20840,19 @@
         <v>MAR</v>
       </c>
       <c r="H121" t="str">
+        <f>VLOOKUP(A121,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>MAR</v>
+      </c>
+      <c r="I121" t="str">
+        <f>VLOOKUP(A121,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>MAR</v>
+      </c>
+      <c r="K121" t="str">
         <f>VLOOKUP(A121,six!$A$2:$B$112,1,FALSE)</f>
         <v>MAR</v>
       </c>
-      <c r="I121" t="str">
-        <f>VLOOKUP(A121,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>MAR</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>364</v>
       </c>
@@ -19433,16 +20875,20 @@
         <f>VLOOKUP(A122,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H122" s="1" t="e">
-        <f>VLOOKUP(A122,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I122" t="str">
+      <c r="H122" t="str">
         <f>VLOOKUP(A122,covid!$A$2:$B$207,1,FALSE)</f>
         <v>MCO</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I122" s="1" t="e">
+        <f>VLOOKUP(A122,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K122" s="1" t="e">
+        <f>VLOOKUP(A122,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -19466,15 +20912,19 @@
         <v>MDA</v>
       </c>
       <c r="H123" t="str">
+        <f>VLOOKUP(A123,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>MDA</v>
+      </c>
+      <c r="I123" t="str">
+        <f>VLOOKUP(A123,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>MDA</v>
+      </c>
+      <c r="K123" t="str">
         <f>VLOOKUP(A123,six!$A$2:$B$112,1,FALSE)</f>
         <v>MDA</v>
       </c>
-      <c r="I123" t="str">
-        <f>VLOOKUP(A123,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>MDA</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>350</v>
       </c>
@@ -19497,16 +20947,20 @@
         <f>VLOOKUP(A124,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>MDG</v>
       </c>
-      <c r="H124" s="3" t="e">
-        <f>VLOOKUP(A124,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I124" t="str">
+      <c r="H124" t="str">
         <f>VLOOKUP(A124,covid!$A$2:$B$207,1,FALSE)</f>
         <v>MDG</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I124" s="3" t="e">
+        <f>VLOOKUP(A124,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K124" s="3" t="e">
+        <f>VLOOKUP(A124,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>354</v>
       </c>
@@ -19529,16 +20983,20 @@
         <f>VLOOKUP(A125,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>MDV</v>
       </c>
-      <c r="H125" s="3" t="e">
-        <f>VLOOKUP(A125,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I125" t="str">
+      <c r="H125" t="str">
         <f>VLOOKUP(A125,covid!$A$2:$B$207,1,FALSE)</f>
         <v>MDV</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I125" s="3" t="e">
+        <f>VLOOKUP(A125,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K125" s="3" t="e">
+        <f>VLOOKUP(A125,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -19562,15 +21020,19 @@
         <v>MEX</v>
       </c>
       <c r="H126" t="str">
+        <f>VLOOKUP(A126,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>MEX</v>
+      </c>
+      <c r="I126" t="str">
+        <f>VLOOKUP(A126,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>MEX</v>
+      </c>
+      <c r="K126" t="str">
         <f>VLOOKUP(A126,six!$A$2:$B$112,1,FALSE)</f>
         <v>MEX</v>
       </c>
-      <c r="I126" t="str">
-        <f>VLOOKUP(A126,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>MEX</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>356</v>
       </c>
@@ -19594,15 +21056,19 @@
         <v>#N/A</v>
       </c>
       <c r="H127" s="1" t="e">
+        <f>VLOOKUP(A127,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I127" s="1" t="e">
+        <f>VLOOKUP(A127,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K127" s="1" t="e">
         <f>VLOOKUP(A127,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I127" s="1" t="e">
-        <f>VLOOKUP(A127,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -19626,15 +21092,19 @@
         <v>MKD</v>
       </c>
       <c r="H128" t="str">
+        <f>VLOOKUP(A128,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>MKD</v>
+      </c>
+      <c r="I128" t="str">
+        <f>VLOOKUP(A128,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>MKD</v>
+      </c>
+      <c r="K128" t="str">
         <f>VLOOKUP(A128,six!$A$2:$B$112,1,FALSE)</f>
         <v>MKD</v>
       </c>
-      <c r="I128" t="str">
-        <f>VLOOKUP(A128,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>MKD</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -19658,15 +21128,19 @@
         <v>MLI</v>
       </c>
       <c r="H129" t="str">
+        <f>VLOOKUP(A129,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>MLI</v>
+      </c>
+      <c r="I129" t="str">
+        <f>VLOOKUP(A129,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>MLI</v>
+      </c>
+      <c r="K129" t="str">
         <f>VLOOKUP(A129,six!$A$2:$B$112,1,FALSE)</f>
         <v>MLI</v>
       </c>
-      <c r="I129" t="str">
-        <f>VLOOKUP(A129,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>MLI</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -19690,15 +21164,19 @@
         <v>MLT</v>
       </c>
       <c r="H130" t="str">
+        <f>VLOOKUP(A130,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>MLT</v>
+      </c>
+      <c r="I130" t="str">
+        <f>VLOOKUP(A130,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>MLT</v>
+      </c>
+      <c r="K130" t="str">
         <f>VLOOKUP(A130,six!$A$2:$B$112,1,FALSE)</f>
         <v>MLT</v>
       </c>
-      <c r="I130" t="str">
-        <f>VLOOKUP(A130,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>MLT</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>370</v>
       </c>
@@ -19721,16 +21199,20 @@
         <f>VLOOKUP(A131,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>MMR</v>
       </c>
-      <c r="H131" s="3" t="e">
-        <f>VLOOKUP(A131,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I131" t="str">
+      <c r="H131" t="str">
         <f>VLOOKUP(A131,covid!$A$2:$B$207,1,FALSE)</f>
         <v>MMR</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I131" s="3" t="e">
+        <f>VLOOKUP(A131,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K131" s="3" t="e">
+        <f>VLOOKUP(A131,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -19754,15 +21236,19 @@
         <v>MNE</v>
       </c>
       <c r="H132" t="str">
+        <f>VLOOKUP(A132,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>MNE</v>
+      </c>
+      <c r="I132" t="str">
+        <f>VLOOKUP(A132,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>MNE</v>
+      </c>
+      <c r="K132" t="str">
         <f>VLOOKUP(A132,six!$A$2:$B$112,1,FALSE)</f>
         <v>MNE</v>
       </c>
-      <c r="I132" t="str">
-        <f>VLOOKUP(A132,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>MNE</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>366</v>
       </c>
@@ -19785,16 +21271,20 @@
         <f>VLOOKUP(A133,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>MNG</v>
       </c>
-      <c r="H133" s="3" t="e">
-        <f>VLOOKUP(A133,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I133" t="str">
+      <c r="H133" t="str">
         <f>VLOOKUP(A133,covid!$A$2:$B$207,1,FALSE)</f>
         <v>MNG</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I133" s="3" t="e">
+        <f>VLOOKUP(A133,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K133" s="3" t="e">
+        <f>VLOOKUP(A133,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>386</v>
       </c>
@@ -19817,20 +21307,24 @@
         <f>VLOOKUP(A134,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H134" s="1" t="e">
-        <f>VLOOKUP(A134,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I134" t="str">
+      <c r="H134" t="str">
         <f>VLOOKUP(A134,covid!$A$2:$B$207,1,FALSE)</f>
         <v>MNP</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I134" s="1" t="e">
+        <f>VLOOKUP(A134,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K134" s="1" t="e">
+        <f>VLOOKUP(A134,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>368</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="5" t="s">
         <v>367</v>
       </c>
       <c r="D135" t="str">
@@ -19849,16 +21343,20 @@
         <f>VLOOKUP(A135,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>MOZ</v>
       </c>
-      <c r="H135" s="3" t="e">
-        <f>VLOOKUP(A135,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I135" t="str">
+      <c r="H135" t="str">
         <f>VLOOKUP(A135,covid!$A$2:$B$207,1,FALSE)</f>
         <v>MOZ</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I135" s="5" t="str">
+        <f>VLOOKUP(A135,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>MOZ</v>
+      </c>
+      <c r="K135" s="3" t="e">
+        <f>VLOOKUP(A135,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>358</v>
       </c>
@@ -19881,16 +21379,20 @@
         <f>VLOOKUP(A136,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>MRT</v>
       </c>
-      <c r="H136" s="3" t="e">
-        <f>VLOOKUP(A136,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I136" t="str">
+      <c r="H136" t="str">
         <f>VLOOKUP(A136,covid!$A$2:$B$207,1,FALSE)</f>
         <v>MRT</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I136" s="3" t="e">
+        <f>VLOOKUP(A136,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K136" s="3" t="e">
+        <f>VLOOKUP(A136,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>360</v>
       </c>
@@ -19913,20 +21415,24 @@
         <f>VLOOKUP(A137,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>MUS</v>
       </c>
-      <c r="H137" s="3" t="e">
-        <f>VLOOKUP(A137,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I137" t="str">
+      <c r="H137" t="str">
         <f>VLOOKUP(A137,covid!$A$2:$B$207,1,FALSE)</f>
         <v>MUS</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I137" s="3" t="e">
+        <f>VLOOKUP(A137,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K137" s="3" t="e">
+        <f>VLOOKUP(A137,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>352</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="5" t="s">
         <v>351</v>
       </c>
       <c r="D138" t="str">
@@ -19945,16 +21451,20 @@
         <f>VLOOKUP(A138,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>MWI</v>
       </c>
-      <c r="H138" s="3" t="e">
-        <f>VLOOKUP(A138,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I138" t="str">
+      <c r="H138" t="str">
         <f>VLOOKUP(A138,covid!$A$2:$B$207,1,FALSE)</f>
         <v>MWI</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I138" s="5" t="str">
+        <f>VLOOKUP(A138,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>MWI</v>
+      </c>
+      <c r="K138" s="3" t="e">
+        <f>VLOOKUP(A138,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>128</v>
       </c>
@@ -19978,19 +21488,23 @@
         <v>MYS</v>
       </c>
       <c r="H139" t="str">
+        <f>VLOOKUP(A139,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>MYS</v>
+      </c>
+      <c r="I139" t="str">
+        <f>VLOOKUP(A139,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>MYS</v>
+      </c>
+      <c r="K139" t="str">
         <f>VLOOKUP(A139,six!$A$2:$B$112,1,FALSE)</f>
         <v>MYS</v>
       </c>
-      <c r="I139" t="str">
-        <f>VLOOKUP(A139,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>MYS</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>372</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="5" t="s">
         <v>371</v>
       </c>
       <c r="D140" t="str">
@@ -20009,16 +21523,20 @@
         <f>VLOOKUP(A140,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>NAM</v>
       </c>
-      <c r="H140" s="3" t="e">
-        <f>VLOOKUP(A140,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I140" t="str">
+      <c r="H140" t="str">
         <f>VLOOKUP(A140,covid!$A$2:$B$207,1,FALSE)</f>
         <v>NAM</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I140" s="5" t="str">
+        <f>VLOOKUP(A140,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>NAM</v>
+      </c>
+      <c r="K140" s="3" t="e">
+        <f>VLOOKUP(A140,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>378</v>
       </c>
@@ -20041,16 +21559,20 @@
         <f>VLOOKUP(A141,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>NCL</v>
       </c>
-      <c r="H141" s="3" t="e">
-        <f>VLOOKUP(A141,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I141" t="str">
+      <c r="H141" t="str">
         <f>VLOOKUP(A141,covid!$A$2:$B$207,1,FALSE)</f>
         <v>NCL</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I141" s="3" t="e">
+        <f>VLOOKUP(A141,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K141" s="3" t="e">
+        <f>VLOOKUP(A141,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>382</v>
       </c>
@@ -20073,16 +21595,20 @@
         <f>VLOOKUP(A142,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>NER</v>
       </c>
-      <c r="H142" s="3" t="e">
-        <f>VLOOKUP(A142,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I142" t="str">
+      <c r="H142" t="str">
         <f>VLOOKUP(A142,covid!$A$2:$B$207,1,FALSE)</f>
         <v>NER</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I142" s="3" t="e">
+        <f>VLOOKUP(A142,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K142" s="3" t="e">
+        <f>VLOOKUP(A142,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -20106,15 +21632,19 @@
         <v>NGA</v>
       </c>
       <c r="H143" t="str">
+        <f>VLOOKUP(A143,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>NGA</v>
+      </c>
+      <c r="I143" t="str">
+        <f>VLOOKUP(A143,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>NGA</v>
+      </c>
+      <c r="K143" t="str">
         <f>VLOOKUP(A143,six!$A$2:$B$112,1,FALSE)</f>
         <v>NGA</v>
       </c>
-      <c r="I143" t="str">
-        <f>VLOOKUP(A143,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>NGA</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>380</v>
       </c>
@@ -20137,16 +21667,20 @@
         <f>VLOOKUP(A144,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>NIC</v>
       </c>
-      <c r="H144" s="3" t="e">
-        <f>VLOOKUP(A144,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I144" t="str">
+      <c r="H144" t="str">
         <f>VLOOKUP(A144,covid!$A$2:$B$207,1,FALSE)</f>
         <v>NIC</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I144" s="3" t="e">
+        <f>VLOOKUP(A144,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K144" s="3" t="e">
+        <f>VLOOKUP(A144,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -20170,15 +21704,19 @@
         <v>NLD</v>
       </c>
       <c r="H145" t="str">
+        <f>VLOOKUP(A145,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>NLD</v>
+      </c>
+      <c r="I145" t="str">
+        <f>VLOOKUP(A145,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>NLD</v>
+      </c>
+      <c r="K145" t="str">
         <f>VLOOKUP(A145,six!$A$2:$B$112,1,FALSE)</f>
         <v>NLD</v>
       </c>
-      <c r="I145" t="str">
-        <f>VLOOKUP(A145,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>NLD</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -20202,19 +21740,23 @@
         <v>NOR</v>
       </c>
       <c r="H146" t="str">
+        <f>VLOOKUP(A146,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>NOR</v>
+      </c>
+      <c r="I146" t="str">
+        <f>VLOOKUP(A146,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>NOR</v>
+      </c>
+      <c r="K146" t="str">
         <f>VLOOKUP(A146,six!$A$2:$B$112,1,FALSE)</f>
         <v>NOR</v>
       </c>
-      <c r="I146" t="str">
-        <f>VLOOKUP(A146,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>NOR</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>376</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="5" t="s">
         <v>375</v>
       </c>
       <c r="D147" t="str">
@@ -20233,16 +21775,20 @@
         <f>VLOOKUP(A147,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>NPL</v>
       </c>
-      <c r="H147" s="3" t="e">
-        <f>VLOOKUP(A147,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I147" t="str">
+      <c r="H147" t="str">
         <f>VLOOKUP(A147,covid!$A$2:$B$207,1,FALSE)</f>
         <v>NPL</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I147" s="5" t="str">
+        <f>VLOOKUP(A147,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>NPL</v>
+      </c>
+      <c r="K147" s="3" t="e">
+        <f>VLOOKUP(A147,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>374</v>
       </c>
@@ -20266,15 +21812,19 @@
         <v>#N/A</v>
       </c>
       <c r="H148" s="1" t="e">
+        <f>VLOOKUP(A148,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I148" s="1" t="e">
+        <f>VLOOKUP(A148,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K148" s="1" t="e">
         <f>VLOOKUP(A148,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I148" s="1" t="e">
-        <f>VLOOKUP(A148,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>144</v>
       </c>
@@ -20298,15 +21848,19 @@
         <v>NZL</v>
       </c>
       <c r="H149" t="str">
+        <f>VLOOKUP(A149,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>NZL</v>
+      </c>
+      <c r="I149" t="str">
+        <f>VLOOKUP(A149,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>NZL</v>
+      </c>
+      <c r="K149" t="str">
         <f>VLOOKUP(A149,six!$A$2:$B$112,1,FALSE)</f>
         <v>NZL</v>
       </c>
-      <c r="I149" t="str">
-        <f>VLOOKUP(A149,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>NZL</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>388</v>
       </c>
@@ -20329,16 +21883,20 @@
         <f>VLOOKUP(A150,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>OMN</v>
       </c>
-      <c r="H150" s="3" t="e">
-        <f>VLOOKUP(A150,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I150" t="str">
+      <c r="H150" t="str">
         <f>VLOOKUP(A150,covid!$A$2:$B$207,1,FALSE)</f>
         <v>OMN</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I150" s="3" t="e">
+        <f>VLOOKUP(A150,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K150" s="3" t="e">
+        <f>VLOOKUP(A150,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>270</v>
       </c>
@@ -20362,15 +21920,19 @@
         <v>OWID_CIS</v>
       </c>
       <c r="H151" s="3" t="e">
+        <f>VLOOKUP(A151,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I151" s="3" t="e">
+        <f>VLOOKUP(A151,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K151" s="3" t="e">
         <f>VLOOKUP(A151,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I151" s="3" t="e">
-        <f>VLOOKUP(A151,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>330</v>
       </c>
@@ -20393,16 +21955,20 @@
         <f>VLOOKUP(A152,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H152" s="1" t="e">
-        <f>VLOOKUP(A152,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I152" t="str">
+      <c r="H152" t="str">
         <f>VLOOKUP(A152,covid!$A$2:$B$207,1,FALSE)</f>
         <v>OWID_KOS</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I152" s="1" t="e">
+        <f>VLOOKUP(A152,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K152" s="1" t="e">
+        <f>VLOOKUP(A152,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>468</v>
       </c>
@@ -20425,16 +21991,20 @@
         <f>VLOOKUP(A153,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>OWID_WRL</v>
       </c>
-      <c r="H153" s="3" t="e">
-        <f>VLOOKUP(A153,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I153" t="str">
+      <c r="H153" t="str">
         <f>VLOOKUP(A153,covid!$A$2:$B$207,1,FALSE)</f>
         <v>OWID_WRL</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I153" s="3" t="e">
+        <f>VLOOKUP(A153,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K153" s="3" t="e">
+        <f>VLOOKUP(A153,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>150</v>
       </c>
@@ -20458,15 +22028,19 @@
         <v>PAK</v>
       </c>
       <c r="H154" t="str">
+        <f>VLOOKUP(A154,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>PAK</v>
+      </c>
+      <c r="I154" t="str">
+        <f>VLOOKUP(A154,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>PAK</v>
+      </c>
+      <c r="K154" t="str">
         <f>VLOOKUP(A154,six!$A$2:$B$112,1,FALSE)</f>
         <v>PAK</v>
       </c>
-      <c r="I154" t="str">
-        <f>VLOOKUP(A154,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>PAK</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -20490,15 +22064,19 @@
         <v>PAN</v>
       </c>
       <c r="H155" t="str">
+        <f>VLOOKUP(A155,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>PAN</v>
+      </c>
+      <c r="I155" t="str">
+        <f>VLOOKUP(A155,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>PAN</v>
+      </c>
+      <c r="K155" t="str">
         <f>VLOOKUP(A155,six!$A$2:$B$112,1,FALSE)</f>
         <v>PAN</v>
       </c>
-      <c r="I155" t="str">
-        <f>VLOOKUP(A155,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>PAN</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -20522,15 +22100,19 @@
         <v>PER</v>
       </c>
       <c r="H156" t="str">
+        <f>VLOOKUP(A156,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>PER</v>
+      </c>
+      <c r="I156" t="str">
+        <f>VLOOKUP(A156,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>PER</v>
+      </c>
+      <c r="K156" t="str">
         <f>VLOOKUP(A156,six!$A$2:$B$112,1,FALSE)</f>
         <v>PER</v>
       </c>
-      <c r="I156" t="str">
-        <f>VLOOKUP(A156,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>PER</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -20554,15 +22136,19 @@
         <v>PHL</v>
       </c>
       <c r="H157" t="str">
+        <f>VLOOKUP(A157,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>PHL</v>
+      </c>
+      <c r="I157" t="str">
+        <f>VLOOKUP(A157,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>PHL</v>
+      </c>
+      <c r="K157" t="str">
         <f>VLOOKUP(A157,six!$A$2:$B$112,1,FALSE)</f>
         <v>PHL</v>
       </c>
-      <c r="I157" t="str">
-        <f>VLOOKUP(A157,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>PHL</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>390</v>
       </c>
@@ -20586,15 +22172,19 @@
         <v>#N/A</v>
       </c>
       <c r="H158" s="1" t="e">
+        <f>VLOOKUP(A158,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I158" s="1" t="e">
+        <f>VLOOKUP(A158,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K158" s="1" t="e">
         <f>VLOOKUP(A158,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I158" s="1" t="e">
-        <f>VLOOKUP(A158,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>394</v>
       </c>
@@ -20617,16 +22207,20 @@
         <f>VLOOKUP(A159,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>PNG</v>
       </c>
-      <c r="H159" s="3" t="e">
-        <f>VLOOKUP(A159,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I159" t="str">
+      <c r="H159" t="str">
         <f>VLOOKUP(A159,covid!$A$2:$B$207,1,FALSE)</f>
         <v>PNG</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I159" s="3" t="e">
+        <f>VLOOKUP(A159,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K159" s="3" t="e">
+        <f>VLOOKUP(A159,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -20650,15 +22244,19 @@
         <v>POL</v>
       </c>
       <c r="H160" t="str">
+        <f>VLOOKUP(A160,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>POL</v>
+      </c>
+      <c r="I160" t="str">
+        <f>VLOOKUP(A160,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>POL</v>
+      </c>
+      <c r="K160" t="str">
         <f>VLOOKUP(A160,six!$A$2:$B$112,1,FALSE)</f>
         <v>POL</v>
       </c>
-      <c r="I160" t="str">
-        <f>VLOOKUP(A160,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>POL</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -20682,15 +22280,19 @@
         <v>PRI</v>
       </c>
       <c r="H161" t="str">
+        <f>VLOOKUP(A161,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>PRI</v>
+      </c>
+      <c r="I161" t="str">
+        <f>VLOOKUP(A161,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>PRI</v>
+      </c>
+      <c r="K161" t="str">
         <f>VLOOKUP(A161,six!$A$2:$B$112,1,FALSE)</f>
         <v>PRI</v>
       </c>
-      <c r="I161" t="str">
-        <f>VLOOKUP(A161,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>PRI</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>384</v>
       </c>
@@ -20714,15 +22316,19 @@
         <v>PRK</v>
       </c>
       <c r="H162" s="3" t="e">
+        <f>VLOOKUP(A162,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I162" s="3" t="e">
+        <f>VLOOKUP(A162,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K162" s="3" t="e">
         <f>VLOOKUP(A162,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I162" s="3" t="e">
-        <f>VLOOKUP(A162,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -20746,15 +22352,19 @@
         <v>PRT</v>
       </c>
       <c r="H163" t="str">
+        <f>VLOOKUP(A163,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>PRT</v>
+      </c>
+      <c r="I163" t="str">
+        <f>VLOOKUP(A163,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>PRT</v>
+      </c>
+      <c r="K163" t="str">
         <f>VLOOKUP(A163,six!$A$2:$B$112,1,FALSE)</f>
         <v>PRT</v>
       </c>
-      <c r="I163" t="str">
-        <f>VLOOKUP(A163,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>PRT</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>396</v>
       </c>
@@ -20777,16 +22387,20 @@
         <f>VLOOKUP(A164,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>PRY</v>
       </c>
-      <c r="H164" s="3" t="e">
-        <f>VLOOKUP(A164,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I164" t="str">
+      <c r="H164" t="str">
         <f>VLOOKUP(A164,covid!$A$2:$B$207,1,FALSE)</f>
         <v>PRY</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I164" s="3" t="e">
+        <f>VLOOKUP(A164,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K164" s="3" t="e">
+        <f>VLOOKUP(A164,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>392</v>
       </c>
@@ -20809,16 +22423,20 @@
         <f>VLOOKUP(A165,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>PSE</v>
       </c>
-      <c r="H165" s="3" t="e">
-        <f>VLOOKUP(A165,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I165" t="str">
+      <c r="H165" t="str">
         <f>VLOOKUP(A165,covid!$A$2:$B$207,1,FALSE)</f>
         <v>PSE</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I165" s="3" t="e">
+        <f>VLOOKUP(A165,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K165" s="3" t="e">
+        <f>VLOOKUP(A165,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>298</v>
       </c>
@@ -20841,20 +22459,24 @@
         <f>VLOOKUP(A166,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>PYF</v>
       </c>
-      <c r="H166" s="3" t="e">
-        <f>VLOOKUP(A166,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I166" t="str">
+      <c r="H166" t="str">
         <f>VLOOKUP(A166,covid!$A$2:$B$207,1,FALSE)</f>
         <v>PYF</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I166" s="3" t="e">
+        <f>VLOOKUP(A166,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K166" s="3" t="e">
+        <f>VLOOKUP(A166,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>398</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="5" t="s">
         <v>397</v>
       </c>
       <c r="D167" t="str">
@@ -20873,16 +22495,20 @@
         <f>VLOOKUP(A167,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>QAT</v>
       </c>
-      <c r="H167" s="3" t="e">
-        <f>VLOOKUP(A167,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I167" t="str">
+      <c r="H167" t="str">
         <f>VLOOKUP(A167,covid!$A$2:$B$207,1,FALSE)</f>
         <v>QAT</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I167" s="5" t="str">
+        <f>VLOOKUP(A167,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>QAT</v>
+      </c>
+      <c r="K167" s="3" t="e">
+        <f>VLOOKUP(A167,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>164</v>
       </c>
@@ -20906,15 +22532,19 @@
         <v>ROU</v>
       </c>
       <c r="H168" t="str">
+        <f>VLOOKUP(A168,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>ROU</v>
+      </c>
+      <c r="I168" t="str">
+        <f>VLOOKUP(A168,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>ROU</v>
+      </c>
+      <c r="K168" t="str">
         <f>VLOOKUP(A168,six!$A$2:$B$112,1,FALSE)</f>
         <v>ROU</v>
       </c>
-      <c r="I168" t="str">
-        <f>VLOOKUP(A168,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>ROU</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -20938,15 +22568,19 @@
         <v>RUS</v>
       </c>
       <c r="H169" t="str">
+        <f>VLOOKUP(A169,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>RUS</v>
+      </c>
+      <c r="I169" t="str">
+        <f>VLOOKUP(A169,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>RUS</v>
+      </c>
+      <c r="K169" t="str">
         <f>VLOOKUP(A169,six!$A$2:$B$112,1,FALSE)</f>
         <v>RUS</v>
       </c>
-      <c r="I169" t="str">
-        <f>VLOOKUP(A169,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>RUS</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -20970,15 +22604,19 @@
         <v>RWA</v>
       </c>
       <c r="H170" t="str">
+        <f>VLOOKUP(A170,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>RWA</v>
+      </c>
+      <c r="I170" t="str">
+        <f>VLOOKUP(A170,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>RWA</v>
+      </c>
+      <c r="K170" t="str">
         <f>VLOOKUP(A170,six!$A$2:$B$112,1,FALSE)</f>
         <v>RWA</v>
       </c>
-      <c r="I170" t="str">
-        <f>VLOOKUP(A170,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>RWA</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -21002,15 +22640,19 @@
         <v>SAU</v>
       </c>
       <c r="H171" t="str">
+        <f>VLOOKUP(A171,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>SAU</v>
+      </c>
+      <c r="I171" t="str">
+        <f>VLOOKUP(A171,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>SAU</v>
+      </c>
+      <c r="K171" t="str">
         <f>VLOOKUP(A171,six!$A$2:$B$112,1,FALSE)</f>
         <v>SAU</v>
       </c>
-      <c r="I171" t="str">
-        <f>VLOOKUP(A171,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>SAU</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>433</v>
       </c>
@@ -21033,20 +22675,24 @@
         <f>VLOOKUP(A172,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>SDN</v>
       </c>
-      <c r="H172" s="3" t="e">
-        <f>VLOOKUP(A172,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I172" t="str">
+      <c r="H172" t="str">
         <f>VLOOKUP(A172,covid!$A$2:$B$207,1,FALSE)</f>
         <v>SDN</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I172" s="3" t="e">
+        <f>VLOOKUP(A172,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K172" s="3" t="e">
+        <f>VLOOKUP(A172,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>414</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="5" t="s">
         <v>413</v>
       </c>
       <c r="D173" t="str">
@@ -21065,16 +22711,20 @@
         <f>VLOOKUP(A173,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>SEN</v>
       </c>
-      <c r="H173" s="3" t="e">
-        <f>VLOOKUP(A173,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I173" t="str">
+      <c r="H173" t="str">
         <f>VLOOKUP(A173,covid!$A$2:$B$207,1,FALSE)</f>
         <v>SEN</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I173" s="5" t="str">
+        <f>VLOOKUP(A173,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>SEN</v>
+      </c>
+      <c r="K173" s="3" t="e">
+        <f>VLOOKUP(A173,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -21098,15 +22748,19 @@
         <v>SGP</v>
       </c>
       <c r="H174" t="str">
+        <f>VLOOKUP(A174,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>SGP</v>
+      </c>
+      <c r="I174" t="str">
+        <f>VLOOKUP(A174,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>SGP</v>
+      </c>
+      <c r="K174" t="str">
         <f>VLOOKUP(A174,six!$A$2:$B$112,1,FALSE)</f>
         <v>SGP</v>
       </c>
-      <c r="I174" t="str">
-        <f>VLOOKUP(A174,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>SGP</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>424</v>
       </c>
@@ -21130,19 +22784,23 @@
         <v>SLB</v>
       </c>
       <c r="H175" s="3" t="e">
+        <f>VLOOKUP(A175,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I175" s="3" t="e">
+        <f>VLOOKUP(A175,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K175" s="3" t="e">
         <f>VLOOKUP(A175,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I175" s="3" t="e">
-        <f>VLOOKUP(A175,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>419</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="5" t="s">
         <v>418</v>
       </c>
       <c r="D176" t="str">
@@ -21161,16 +22819,20 @@
         <f>VLOOKUP(A176,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>SLE</v>
       </c>
-      <c r="H176" s="3" t="e">
-        <f>VLOOKUP(A176,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I176" t="str">
+      <c r="H176" t="str">
         <f>VLOOKUP(A176,covid!$A$2:$B$207,1,FALSE)</f>
         <v>SLE</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I176" s="5" t="str">
+        <f>VLOOKUP(A176,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>SLE</v>
+      </c>
+      <c r="K176" s="3" t="e">
+        <f>VLOOKUP(A176,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>68</v>
       </c>
@@ -21194,15 +22856,19 @@
         <v>SLV</v>
       </c>
       <c r="H177" t="str">
+        <f>VLOOKUP(A177,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>SLV</v>
+      </c>
+      <c r="I177" t="str">
+        <f>VLOOKUP(A177,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>SLV</v>
+      </c>
+      <c r="K177" t="str">
         <f>VLOOKUP(A177,six!$A$2:$B$112,1,FALSE)</f>
         <v>SLV</v>
       </c>
-      <c r="I177" t="str">
-        <f>VLOOKUP(A177,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>SLV</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>410</v>
       </c>
@@ -21225,16 +22891,20 @@
         <f>VLOOKUP(A178,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H178" s="1" t="e">
-        <f>VLOOKUP(A178,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I178" t="str">
+      <c r="H178" t="str">
         <f>VLOOKUP(A178,covid!$A$2:$B$207,1,FALSE)</f>
         <v>SMR</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I178" s="1" t="e">
+        <f>VLOOKUP(A178,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K178" s="1" t="e">
+        <f>VLOOKUP(A178,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>426</v>
       </c>
@@ -21257,20 +22927,24 @@
         <f>VLOOKUP(A179,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>SOM</v>
       </c>
-      <c r="H179" s="3" t="e">
-        <f>VLOOKUP(A179,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I179" t="str">
+      <c r="H179" t="str">
         <f>VLOOKUP(A179,covid!$A$2:$B$207,1,FALSE)</f>
         <v>SOM</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I179" s="3" t="e">
+        <f>VLOOKUP(A179,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K179" s="3" t="e">
+        <f>VLOOKUP(A179,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>415</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="5" t="s">
         <v>173</v>
       </c>
       <c r="D180" t="str">
@@ -21289,16 +22963,20 @@
         <f>VLOOKUP(A180,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>SRB</v>
       </c>
-      <c r="H180" s="3" t="e">
-        <f>VLOOKUP(A180,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I180" t="str">
+      <c r="H180" t="str">
         <f>VLOOKUP(A180,covid!$A$2:$B$207,1,FALSE)</f>
         <v>SRB</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I180" s="5" t="str">
+        <f>VLOOKUP(A180,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>SRB</v>
+      </c>
+      <c r="K180" s="3" t="e">
+        <f>VLOOKUP(A180,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>429</v>
       </c>
@@ -21321,16 +22999,20 @@
         <f>VLOOKUP(A181,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>SSD</v>
       </c>
-      <c r="H181" s="3" t="e">
-        <f>VLOOKUP(A181,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I181" t="str">
+      <c r="H181" t="str">
         <f>VLOOKUP(A181,covid!$A$2:$B$207,1,FALSE)</f>
         <v>SSD</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I181" s="3" t="e">
+        <f>VLOOKUP(A181,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K181" s="3" t="e">
+        <f>VLOOKUP(A181,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>412</v>
       </c>
@@ -21353,16 +23035,20 @@
         <f>VLOOKUP(A182,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>STP</v>
       </c>
-      <c r="H182" s="3" t="e">
-        <f>VLOOKUP(A182,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I182" t="str">
+      <c r="H182" t="str">
         <f>VLOOKUP(A182,covid!$A$2:$B$207,1,FALSE)</f>
         <v>STP</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I182" s="3" t="e">
+        <f>VLOOKUP(A182,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K182" s="3" t="e">
+        <f>VLOOKUP(A182,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -21386,15 +23072,19 @@
         <v>SUR</v>
       </c>
       <c r="H183" t="str">
+        <f>VLOOKUP(A183,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>SUR</v>
+      </c>
+      <c r="I183" t="str">
+        <f>VLOOKUP(A183,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>SUR</v>
+      </c>
+      <c r="K183" t="str">
         <f>VLOOKUP(A183,six!$A$2:$B$112,1,FALSE)</f>
         <v>SUR</v>
       </c>
-      <c r="I183" t="str">
-        <f>VLOOKUP(A183,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>SUR</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>176</v>
       </c>
@@ -21418,15 +23108,19 @@
         <v>SVK</v>
       </c>
       <c r="H184" t="str">
+        <f>VLOOKUP(A184,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>SVK</v>
+      </c>
+      <c r="I184" t="str">
+        <f>VLOOKUP(A184,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>SVK</v>
+      </c>
+      <c r="K184" t="str">
         <f>VLOOKUP(A184,six!$A$2:$B$112,1,FALSE)</f>
         <v>SVK</v>
       </c>
-      <c r="I184" t="str">
-        <f>VLOOKUP(A184,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>SVK</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>178</v>
       </c>
@@ -21450,15 +23144,19 @@
         <v>SVN</v>
       </c>
       <c r="H185" t="str">
+        <f>VLOOKUP(A185,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>SVN</v>
+      </c>
+      <c r="I185" t="str">
+        <f>VLOOKUP(A185,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>SVN</v>
+      </c>
+      <c r="K185" t="str">
         <f>VLOOKUP(A185,six!$A$2:$B$112,1,FALSE)</f>
         <v>SVN</v>
       </c>
-      <c r="I185" t="str">
-        <f>VLOOKUP(A185,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>SVN</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -21482,15 +23180,19 @@
         <v>SWE</v>
       </c>
       <c r="H186" t="str">
+        <f>VLOOKUP(A186,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>SWE</v>
+      </c>
+      <c r="I186" t="str">
+        <f>VLOOKUP(A186,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>SWE</v>
+      </c>
+      <c r="K186" t="str">
         <f>VLOOKUP(A186,six!$A$2:$B$112,1,FALSE)</f>
         <v>SWE</v>
       </c>
-      <c r="I186" t="str">
-        <f>VLOOKUP(A186,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>SWE</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>435</v>
       </c>
@@ -21513,16 +23215,20 @@
         <f>VLOOKUP(A187,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>SWZ</v>
       </c>
-      <c r="H187" s="3" t="e">
-        <f>VLOOKUP(A187,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I187" t="str">
+      <c r="H187" t="str">
         <f>VLOOKUP(A187,covid!$A$2:$B$207,1,FALSE)</f>
         <v>SWZ</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I187" s="3" t="e">
+        <f>VLOOKUP(A187,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K187" s="3" t="e">
+        <f>VLOOKUP(A187,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>421</v>
       </c>
@@ -21545,16 +23251,20 @@
         <f>VLOOKUP(A188,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H188" s="1" t="e">
-        <f>VLOOKUP(A188,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I188" t="str">
+      <c r="H188" t="str">
         <f>VLOOKUP(A188,covid!$A$2:$B$207,1,FALSE)</f>
         <v>SXM</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I188" s="1" t="e">
+        <f>VLOOKUP(A188,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K188" s="1" t="e">
+        <f>VLOOKUP(A188,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>417</v>
       </c>
@@ -21577,16 +23287,20 @@
         <f>VLOOKUP(A189,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>SYC</v>
       </c>
-      <c r="H189" s="3" t="e">
-        <f>VLOOKUP(A189,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I189" t="str">
+      <c r="H189" t="str">
         <f>VLOOKUP(A189,covid!$A$2:$B$207,1,FALSE)</f>
         <v>SYC</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I189" s="3" t="e">
+        <f>VLOOKUP(A189,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K189" s="3" t="e">
+        <f>VLOOKUP(A189,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>437</v>
       </c>
@@ -21609,16 +23323,20 @@
         <f>VLOOKUP(A190,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H190" s="1" t="e">
-        <f>VLOOKUP(A190,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I190" t="str">
+      <c r="H190" t="str">
         <f>VLOOKUP(A190,covid!$A$2:$B$207,1,FALSE)</f>
         <v>SYR</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I190" s="1" t="e">
+        <f>VLOOKUP(A190,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K190" s="1" t="e">
+        <f>VLOOKUP(A190,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>452</v>
       </c>
@@ -21641,16 +23359,20 @@
         <f>VLOOKUP(A191,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H191" s="1" t="e">
-        <f>VLOOKUP(A191,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I191" t="str">
+      <c r="H191" t="str">
         <f>VLOOKUP(A191,covid!$A$2:$B$207,1,FALSE)</f>
         <v>TCA</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I191" s="1" t="e">
+        <f>VLOOKUP(A191,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K191" s="1" t="e">
+        <f>VLOOKUP(A191,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>268</v>
       </c>
@@ -21673,16 +23395,20 @@
         <f>VLOOKUP(A192,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>TCD</v>
       </c>
-      <c r="H192" s="3" t="e">
-        <f>VLOOKUP(A192,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I192" t="str">
+      <c r="H192" t="str">
         <f>VLOOKUP(A192,covid!$A$2:$B$207,1,FALSE)</f>
         <v>TCD</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I192" s="3" t="e">
+        <f>VLOOKUP(A192,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K192" s="3" t="e">
+        <f>VLOOKUP(A192,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>444</v>
       </c>
@@ -21705,16 +23431,20 @@
         <f>VLOOKUP(A193,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>TGO</v>
       </c>
-      <c r="H193" s="3" t="e">
-        <f>VLOOKUP(A193,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I193" t="str">
+      <c r="H193" t="str">
         <f>VLOOKUP(A193,covid!$A$2:$B$207,1,FALSE)</f>
         <v>TGO</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I193" s="3" t="e">
+        <f>VLOOKUP(A193,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K193" s="3" t="e">
+        <f>VLOOKUP(A193,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -21738,15 +23468,19 @@
         <v>THA</v>
       </c>
       <c r="H194" t="str">
+        <f>VLOOKUP(A194,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>THA</v>
+      </c>
+      <c r="I194" t="str">
+        <f>VLOOKUP(A194,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>THA</v>
+      </c>
+      <c r="K194" t="str">
         <f>VLOOKUP(A194,six!$A$2:$B$112,1,FALSE)</f>
         <v>THA</v>
       </c>
-      <c r="I194" t="str">
-        <f>VLOOKUP(A194,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>THA</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>440</v>
       </c>
@@ -21770,15 +23504,19 @@
         <v>TJK</v>
       </c>
       <c r="H195" s="3" t="e">
+        <f>VLOOKUP(A195,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I195" s="3" t="e">
+        <f>VLOOKUP(A195,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K195" s="3" t="e">
         <f>VLOOKUP(A195,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I195" s="3" t="e">
-        <f>VLOOKUP(A195,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>450</v>
       </c>
@@ -21802,15 +23540,19 @@
         <v>TKM</v>
       </c>
       <c r="H196" s="3" t="e">
+        <f>VLOOKUP(A196,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I196" s="3" t="e">
+        <f>VLOOKUP(A196,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K196" s="3" t="e">
         <f>VLOOKUP(A196,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I196" s="3" t="e">
-        <f>VLOOKUP(A196,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>442</v>
       </c>
@@ -21833,16 +23575,20 @@
         <f>VLOOKUP(A197,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>TLS</v>
       </c>
-      <c r="H197" s="3" t="e">
-        <f>VLOOKUP(A197,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I197" t="str">
+      <c r="H197" t="str">
         <f>VLOOKUP(A197,covid!$A$2:$B$207,1,FALSE)</f>
         <v>TLS</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I197" s="3" t="e">
+        <f>VLOOKUP(A197,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K197" s="3" t="e">
+        <f>VLOOKUP(A197,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>446</v>
       </c>
@@ -21866,15 +23612,19 @@
         <v>TON</v>
       </c>
       <c r="H198" s="3" t="e">
+        <f>VLOOKUP(A198,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I198" s="3" t="e">
+        <f>VLOOKUP(A198,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K198" s="3" t="e">
         <f>VLOOKUP(A198,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I198" s="3" t="e">
-        <f>VLOOKUP(A198,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -21898,15 +23648,19 @@
         <v>TTO</v>
       </c>
       <c r="H199" t="str">
+        <f>VLOOKUP(A199,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>TTO</v>
+      </c>
+      <c r="I199" t="str">
+        <f>VLOOKUP(A199,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>TTO</v>
+      </c>
+      <c r="K199" t="str">
         <f>VLOOKUP(A199,six!$A$2:$B$112,1,FALSE)</f>
         <v>TTO</v>
       </c>
-      <c r="I199" t="str">
-        <f>VLOOKUP(A199,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>TTO</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>448</v>
       </c>
@@ -21929,16 +23683,20 @@
         <f>VLOOKUP(A200,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>TUN</v>
       </c>
-      <c r="H200" s="3" t="e">
-        <f>VLOOKUP(A200,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I200" t="str">
+      <c r="H200" t="str">
         <f>VLOOKUP(A200,covid!$A$2:$B$207,1,FALSE)</f>
         <v>TUN</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I200" s="3" t="e">
+        <f>VLOOKUP(A200,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K200" s="3" t="e">
+        <f>VLOOKUP(A200,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -21962,15 +23720,19 @@
         <v>TUR</v>
       </c>
       <c r="H201" t="str">
+        <f>VLOOKUP(A201,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>TUR</v>
+      </c>
+      <c r="I201" t="str">
+        <f>VLOOKUP(A201,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>TUR</v>
+      </c>
+      <c r="K201" t="str">
         <f>VLOOKUP(A201,six!$A$2:$B$112,1,FALSE)</f>
         <v>TUR</v>
       </c>
-      <c r="I201" t="str">
-        <f>VLOOKUP(A201,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>TUR</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>454</v>
       </c>
@@ -21994,15 +23756,19 @@
         <v>#N/A</v>
       </c>
       <c r="H202" s="1" t="e">
+        <f>VLOOKUP(A202,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I202" s="1" t="e">
+        <f>VLOOKUP(A202,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K202" s="1" t="e">
         <f>VLOOKUP(A202,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I202" s="1" t="e">
-        <f>VLOOKUP(A202,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>438</v>
       </c>
@@ -22025,16 +23791,20 @@
         <f>VLOOKUP(A203,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H203" s="1" t="e">
-        <f>VLOOKUP(A203,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I203" t="str">
+      <c r="H203" t="str">
         <f>VLOOKUP(A203,covid!$A$2:$B$207,1,FALSE)</f>
         <v>TWN</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I203" s="1" t="e">
+        <f>VLOOKUP(A203,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K203" s="1" t="e">
+        <f>VLOOKUP(A203,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>198</v>
       </c>
@@ -22058,15 +23828,19 @@
         <v>TZA</v>
       </c>
       <c r="H204" t="str">
+        <f>VLOOKUP(A204,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>TZA</v>
+      </c>
+      <c r="I204" t="str">
+        <f>VLOOKUP(A204,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>TZA</v>
+      </c>
+      <c r="K204" t="str">
         <f>VLOOKUP(A204,six!$A$2:$B$112,1,FALSE)</f>
         <v>TZA</v>
       </c>
-      <c r="I204" t="str">
-        <f>VLOOKUP(A204,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>TZA</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -22090,15 +23864,19 @@
         <v>UGA</v>
       </c>
       <c r="H205" t="str">
+        <f>VLOOKUP(A205,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>UGA</v>
+      </c>
+      <c r="I205" t="str">
+        <f>VLOOKUP(A205,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>UGA</v>
+      </c>
+      <c r="K205" t="str">
         <f>VLOOKUP(A205,six!$A$2:$B$112,1,FALSE)</f>
         <v>UGA</v>
       </c>
-      <c r="I205" t="str">
-        <f>VLOOKUP(A205,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>UGA</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>210</v>
       </c>
@@ -22122,15 +23900,19 @@
         <v>UKR</v>
       </c>
       <c r="H206" t="str">
+        <f>VLOOKUP(A206,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>UKR</v>
+      </c>
+      <c r="I206" t="str">
+        <f>VLOOKUP(A206,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>UKR</v>
+      </c>
+      <c r="K206" t="str">
         <f>VLOOKUP(A206,six!$A$2:$B$112,1,FALSE)</f>
         <v>UKR</v>
       </c>
-      <c r="I206" t="str">
-        <f>VLOOKUP(A206,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>UKR</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>212</v>
       </c>
@@ -22154,15 +23936,19 @@
         <v>URY</v>
       </c>
       <c r="H207" t="str">
+        <f>VLOOKUP(A207,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>URY</v>
+      </c>
+      <c r="I207" t="str">
+        <f>VLOOKUP(A207,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>URY</v>
+      </c>
+      <c r="K207" t="str">
         <f>VLOOKUP(A207,six!$A$2:$B$112,1,FALSE)</f>
         <v>URY</v>
       </c>
-      <c r="I207" t="str">
-        <f>VLOOKUP(A207,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>URY</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -22186,15 +23972,19 @@
         <v>USA</v>
       </c>
       <c r="H208" t="str">
+        <f>VLOOKUP(A208,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>USA</v>
+      </c>
+      <c r="I208" t="str">
+        <f>VLOOKUP(A208,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>USA</v>
+      </c>
+      <c r="K208" t="str">
         <f>VLOOKUP(A208,six!$A$2:$B$112,1,FALSE)</f>
         <v>USA</v>
       </c>
-      <c r="I208" t="str">
-        <f>VLOOKUP(A208,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>USA</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>462</v>
       </c>
@@ -22217,16 +24007,20 @@
         <f>VLOOKUP(A209,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>UZB</v>
       </c>
-      <c r="H209" s="3" t="e">
-        <f>VLOOKUP(A209,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I209" t="str">
+      <c r="H209" t="str">
         <f>VLOOKUP(A209,covid!$A$2:$B$207,1,FALSE)</f>
         <v>UZB</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I209" s="3" t="e">
+        <f>VLOOKUP(A209,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K209" s="3" t="e">
+        <f>VLOOKUP(A209,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>466</v>
       </c>
@@ -22249,16 +24043,20 @@
         <f>VLOOKUP(A210,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H210" s="1" t="e">
-        <f>VLOOKUP(A210,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I210" t="str">
+      <c r="H210" t="str">
         <f>VLOOKUP(A210,covid!$A$2:$B$207,1,FALSE)</f>
         <v>VAT</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I210" s="1" t="e">
+        <f>VLOOKUP(A210,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K210" s="1" t="e">
+        <f>VLOOKUP(A210,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>406</v>
       </c>
@@ -22281,16 +24079,20 @@
         <f>VLOOKUP(A211,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>VCT</v>
       </c>
-      <c r="H211" s="3" t="e">
-        <f>VLOOKUP(A211,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I211" t="str">
+      <c r="H211" t="str">
         <f>VLOOKUP(A211,covid!$A$2:$B$207,1,FALSE)</f>
         <v>VCT</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I211" s="3" t="e">
+        <f>VLOOKUP(A211,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K211" s="3" t="e">
+        <f>VLOOKUP(A211,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -22314,15 +24116,19 @@
         <v>VEN</v>
       </c>
       <c r="H212" t="str">
+        <f>VLOOKUP(A212,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>VEN</v>
+      </c>
+      <c r="I212" t="str">
+        <f>VLOOKUP(A212,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>VEN</v>
+      </c>
+      <c r="K212" t="str">
         <f>VLOOKUP(A212,six!$A$2:$B$112,1,FALSE)</f>
         <v>VEN</v>
       </c>
-      <c r="I212" t="str">
-        <f>VLOOKUP(A212,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>VEN</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>253</v>
       </c>
@@ -22345,16 +24151,20 @@
         <f>VLOOKUP(A213,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H213" s="1" t="e">
-        <f>VLOOKUP(A213,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I213" t="str">
+      <c r="H213" t="str">
         <f>VLOOKUP(A213,covid!$A$2:$B$207,1,FALSE)</f>
         <v>VGB</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I213" s="1" t="e">
+        <f>VLOOKUP(A213,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K213" s="1" t="e">
+        <f>VLOOKUP(A213,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>460</v>
       </c>
@@ -22377,16 +24187,20 @@
         <f>VLOOKUP(A214,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>VIR</v>
       </c>
-      <c r="H214" s="3" t="e">
-        <f>VLOOKUP(A214,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I214" t="str">
+      <c r="H214" t="str">
         <f>VLOOKUP(A214,covid!$A$2:$B$207,1,FALSE)</f>
         <v>VIR</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I214" s="3" t="e">
+        <f>VLOOKUP(A214,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K214" s="3" t="e">
+        <f>VLOOKUP(A214,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -22410,15 +24224,19 @@
         <v>VNM</v>
       </c>
       <c r="H215" t="str">
+        <f>VLOOKUP(A215,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>VNM</v>
+      </c>
+      <c r="I215" t="str">
+        <f>VLOOKUP(A215,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>VNM</v>
+      </c>
+      <c r="K215" t="str">
         <f>VLOOKUP(A215,six!$A$2:$B$112,1,FALSE)</f>
         <v>VNM</v>
       </c>
-      <c r="I215" t="str">
-        <f>VLOOKUP(A215,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>VNM</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>464</v>
       </c>
@@ -22442,15 +24260,19 @@
         <v>VUT</v>
       </c>
       <c r="H216" s="3" t="e">
+        <f>VLOOKUP(A216,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I216" s="3" t="e">
+        <f>VLOOKUP(A216,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K216" s="3" t="e">
         <f>VLOOKUP(A216,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I216" s="3" t="e">
-        <f>VLOOKUP(A216,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>408</v>
       </c>
@@ -22474,15 +24296,19 @@
         <v>WSM</v>
       </c>
       <c r="H217" s="3" t="e">
+        <f>VLOOKUP(A217,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I217" s="3" t="e">
+        <f>VLOOKUP(A217,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K217" s="3" t="e">
         <f>VLOOKUP(A217,six!$A$2:$B$112,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I217" s="3" t="e">
-        <f>VLOOKUP(A217,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>470</v>
       </c>
@@ -22505,16 +24331,20 @@
         <f>VLOOKUP(A218,mergedMedAge!$A$2:$B$194,1,FALSE)</f>
         <v>YEM</v>
       </c>
-      <c r="H218" s="3" t="e">
-        <f>VLOOKUP(A218,six!$A$2:$B$112,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I218" t="str">
+      <c r="H218" t="str">
         <f>VLOOKUP(A218,covid!$A$2:$B$207,1,FALSE)</f>
         <v>YEM</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I218" s="3" t="e">
+        <f>VLOOKUP(A218,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K218" s="3" t="e">
+        <f>VLOOKUP(A218,six!$A$2:$B$112,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>180</v>
       </c>
@@ -22538,15 +24368,19 @@
         <v>ZAF</v>
       </c>
       <c r="H219" t="str">
+        <f>VLOOKUP(A219,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>ZAF</v>
+      </c>
+      <c r="I219" t="str">
+        <f>VLOOKUP(A219,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>ZAF</v>
+      </c>
+      <c r="K219" t="str">
         <f>VLOOKUP(A219,six!$A$2:$B$112,1,FALSE)</f>
         <v>ZAF</v>
       </c>
-      <c r="I219" t="str">
-        <f>VLOOKUP(A219,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>ZAF</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -22570,15 +24404,19 @@
         <v>ZMB</v>
       </c>
       <c r="H220" t="str">
+        <f>VLOOKUP(A220,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>ZMB</v>
+      </c>
+      <c r="I220" t="str">
+        <f>VLOOKUP(A220,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>ZMB</v>
+      </c>
+      <c r="K220" t="str">
         <f>VLOOKUP(A220,six!$A$2:$B$112,1,FALSE)</f>
         <v>ZMB</v>
       </c>
-      <c r="I220" t="str">
-        <f>VLOOKUP(A220,covid!$A$2:$B$207,1,FALSE)</f>
-        <v>ZMB</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -22602,11 +24440,15 @@
         <v>ZWE</v>
       </c>
       <c r="H221" t="str">
+        <f>VLOOKUP(A221,covid!$A$2:$B$207,1,FALSE)</f>
+        <v>ZWE</v>
+      </c>
+      <c r="I221" t="str">
+        <f>VLOOKUP(A221,mergedCovid!$A$2:$B$117,1,FALSE)</f>
+        <v>ZWE</v>
+      </c>
+      <c r="K221" t="str">
         <f>VLOOKUP(A221,six!$A$2:$B$112,1,FALSE)</f>
-        <v>ZWE</v>
-      </c>
-      <c r="I221" t="str">
-        <f>VLOOKUP(A221,covid!$A$2:$B$207,1,FALSE)</f>
         <v>ZWE</v>
       </c>
     </row>
